--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_19_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_19_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1387063.533778175</v>
+        <v>1324889.572708242</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13011451.3625953</v>
+        <v>13011451.36259529</v>
       </c>
     </row>
     <row r="9">
@@ -1375,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>222.6571589824345</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824345</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>3.728290874919793</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>196.1164256317279</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824345</v>
       </c>
       <c r="W11" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>192.3881347568085</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0987399612021</v>
+        <v>1.059678081886501</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>22.87245664547832</v>
       </c>
       <c r="S12" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>222.6571589824345</v>
       </c>
       <c r="W12" t="n">
-        <v>72.67738300026981</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>130.9910795750018</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>121.1564964093063</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824345</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,14 +1618,14 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>222.6571589824345</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>3.728290874919793</v>
       </c>
       <c r="S14" t="n">
         <v>156.0053783754247</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U14" t="n">
+        <v>46.12823741901187</v>
+      </c>
+      <c r="V14" t="n">
         <v>222.6571589824345</v>
       </c>
-      <c r="V14" t="n">
-        <v>40.11104725630348</v>
-      </c>
       <c r="W14" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>141.4600036115795</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1706,7 +1706,7 @@
         <v>100.2135170486767</v>
       </c>
       <c r="I15" t="n">
-        <v>46.53917216822465</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>21.46599212993685</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1745,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>222.6571589824345</v>
       </c>
       <c r="W15" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>50.69537760879692</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>222.6571589824345</v>
@@ -1830,10 +1830,10 @@
         <v>222.6571589824345</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>200.1889312620678</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="C17" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>202.1336157944363</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>192.3881347568085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>7.317903633380758</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>64.52890830541652</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>222.6571589824345</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="W18" t="n">
-        <v>222.6571589824345</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>205.8298553706975</v>
+        <v>16.28444544979083</v>
       </c>
       <c r="T19" t="n">
-        <v>49.76941377517699</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="U19" t="n">
-        <v>222.6571589824345</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,17 +2083,17 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>222.6571589824345</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>3.728290874919793</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T20" t="n">
-        <v>196.1164256317283</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>222.6571589824345</v>
       </c>
       <c r="W20" t="n">
+        <v>36.3827563813838</v>
+      </c>
+      <c r="X20" t="n">
         <v>222.6571589824345</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>45.01968914263284</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>22.87245664547832</v>
       </c>
       <c r="S21" t="n">
-        <v>74.06746112655946</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>195.1474030428659</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>49.68246298515898</v>
+      </c>
+      <c r="V22" t="n">
         <v>222.6571589824345</v>
       </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
       <c r="W22" t="n">
-        <v>82.57346213723709</v>
+        <v>222.6571589824345</v>
       </c>
       <c r="X22" t="n">
         <v>222.6571589824345</v>
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>248.8950473907584</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>248.8950473907584</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>156.0053783754247</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U23" t="n">
+        <v>95.47645793738756</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>248.8950473907584</v>
       </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>59.49308849143559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2408,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>104.8271350930191</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>183.628943986845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>19.57811714556237</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S25" t="n">
-        <v>205.8298553706975</v>
+        <v>28.28819081131847</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>248.8950473907584</v>
       </c>
-      <c r="V25" t="n">
-        <v>36.58229437280366</v>
-      </c>
       <c r="W25" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>3.728290874919793</v>
       </c>
       <c r="S26" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>215.4984668668602</v>
       </c>
       <c r="X26" t="n">
-        <v>99.20474881230732</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H27" t="n">
-        <v>24.9826863868469</v>
+        <v>46.71725939298157</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>46.53917216822465</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>19.57811714556237</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>130.370267106228</v>
       </c>
       <c r="S28" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>162.2320766942765</v>
+        <v>223.4866593014431</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="V28" t="n">
-        <v>248.8950473907584</v>
+        <v>117.8721535810261</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,70 +2794,70 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>219.2267577417801</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>248.8950473907584</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>248.8950473907584</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>120.7842216425874</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>98.44253609919265</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>248.8950473907584</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,16 +2873,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>40.33691684152679</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>22.87245664547832</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T30" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8594888440006</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>146.4444466589711</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>223.4866593014431</v>
       </c>
       <c r="U31" t="n">
-        <v>112.1885970945428</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>203.3342226099346</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>248.8950473907584</v>
       </c>
-      <c r="F32" t="n">
-        <v>99.2047488123073</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.586788922053862</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>3.728290874919793</v>
       </c>
       <c r="S32" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>212.9116779448064</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3113,16 +3113,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>77.93163573631385</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3161,19 +3161,19 @@
         <v>148.5619805314415</v>
       </c>
       <c r="T33" t="n">
-        <v>107.0991324196473</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>205.8298553706975</v>
+        <v>94.08158443592598</v>
       </c>
       <c r="T34" t="n">
         <v>223.4866593014431</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>157.330070744928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,19 +3271,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>222.6571589824346</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>36.38275638138374</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>156.0053783754247</v>
       </c>
       <c r="T35" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>222.6571589824346</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>46.12823741901221</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>75.06420103985519</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>46.55770518699129</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U36" t="n">
-        <v>222.6571589824346</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="V36" t="n">
-        <v>222.6571589824346</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,31 +3423,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>86.64596776757726</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>19.57811714556237</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="U37" t="n">
-        <v>222.6571589824346</v>
+        <v>9.801991673441069</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="D38" t="n">
-        <v>205.8619066693562</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>3.728290874919793</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>192.3881347568084</v>
       </c>
       <c r="V38" t="n">
-        <v>222.6571589824344</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>222.6571589824344</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>69.16620759950693</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>41.5661622337653</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>148.5619805314415</v>
       </c>
       <c r="T39" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
         <v>222.6571589824344</v>
       </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>5.672246503220474</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>222.6571589824344</v>
       </c>
-      <c r="V40" t="n">
-        <v>86.64596776757661</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>40.11104725630343</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>222.6571589824344</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>3.728290874919793</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>156.0053783754247</v>
       </c>
       <c r="T41" t="n">
-        <v>36.38275638138374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>222.6571589824344</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3866,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>22.87245664547832</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>222.6571589824344</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>79.53190197597944</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="X42" t="n">
-        <v>127.4038378121725</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>45.69690814483718</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>19.57811714556237</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>31.1172604632346</v>
       </c>
       <c r="S43" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>222.6571589824344</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>222.6571589824344</v>
       </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>222.6571589824344</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>222.6571589824344</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>36.38275638138376</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>3.728290874919793</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>196.1164256317282</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>93.41440296859722</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>11.2659772391745</v>
       </c>
       <c r="H45" t="n">
         <v>100.2135170486767</v>
       </c>
       <c r="I45" t="n">
-        <v>46.53917216822465</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>22.87245664547832</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4121,10 +4121,10 @@
         <v>222.6571589824344</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>54.76788323913654</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T46" t="n">
         <v>222.6571589824344</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>212.943729243465</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>242.7187939129727</v>
+        <v>467.6250151073513</v>
       </c>
       <c r="C11" t="n">
-        <v>242.7187939129727</v>
+        <v>467.6250151073513</v>
       </c>
       <c r="D11" t="n">
-        <v>242.7187939129727</v>
+        <v>242.718793912973</v>
       </c>
       <c r="E11" t="n">
-        <v>242.7187939129727</v>
+        <v>242.718793912973</v>
       </c>
       <c r="F11" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="G11" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="H11" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="I11" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="J11" t="n">
-        <v>34.05974234075606</v>
+        <v>34.05974234075615</v>
       </c>
       <c r="K11" t="n">
-        <v>109.1485562061087</v>
+        <v>109.1485562061089</v>
       </c>
       <c r="L11" t="n">
-        <v>239.2046314711341</v>
+        <v>239.2046314711339</v>
       </c>
       <c r="M11" t="n">
-        <v>415.5865117704858</v>
+        <v>415.5865117704857</v>
       </c>
       <c r="N11" t="n">
         <v>599.4362436734925</v>
@@ -5059,34 +5059,34 @@
         <v>759.7050708974407</v>
       </c>
       <c r="P11" t="n">
-        <v>861.9898061237594</v>
+        <v>861.9898061237606</v>
       </c>
       <c r="Q11" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297378</v>
       </c>
       <c r="R11" t="n">
-        <v>890.6286359297367</v>
+        <v>886.8626855510309</v>
       </c>
       <c r="S11" t="n">
-        <v>890.6286359297367</v>
+        <v>886.8626855510309</v>
       </c>
       <c r="T11" t="n">
-        <v>890.6286359297367</v>
+        <v>886.8626855510309</v>
       </c>
       <c r="U11" t="n">
-        <v>692.5312363017287</v>
+        <v>886.8626855510309</v>
       </c>
       <c r="V11" t="n">
-        <v>467.6250151073507</v>
+        <v>661.9564643566528</v>
       </c>
       <c r="W11" t="n">
-        <v>242.7187939129727</v>
+        <v>661.9564643566528</v>
       </c>
       <c r="X11" t="n">
-        <v>242.7187939129727</v>
+        <v>467.6250151073513</v>
       </c>
       <c r="Y11" t="n">
-        <v>242.7187939129727</v>
+        <v>467.6250151073513</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>301.8206053999947</v>
+        <v>266.6432873892484</v>
       </c>
       <c r="C12" t="n">
-        <v>301.8206053999947</v>
+        <v>266.6432873892484</v>
       </c>
       <c r="D12" t="n">
-        <v>301.8206053999947</v>
+        <v>266.6432873892484</v>
       </c>
       <c r="E12" t="n">
-        <v>301.8206053999947</v>
+        <v>266.6432873892484</v>
       </c>
       <c r="F12" t="n">
-        <v>155.2860474268797</v>
+        <v>120.1087294161333</v>
       </c>
       <c r="G12" t="n">
-        <v>17.81257271859473</v>
+        <v>119.0383475152379</v>
       </c>
       <c r="H12" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="I12" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="J12" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="K12" t="n">
-        <v>124.7714519989685</v>
+        <v>80.34372630892096</v>
       </c>
       <c r="L12" t="n">
-        <v>255.1748459799667</v>
+        <v>255.1748459799676</v>
       </c>
       <c r="M12" t="n">
-        <v>426.7063241973253</v>
+        <v>426.7063241973262</v>
       </c>
       <c r="N12" t="n">
-        <v>617.1863751510016</v>
+        <v>617.1863751510025</v>
       </c>
       <c r="O12" t="n">
-        <v>769.2186132763799</v>
+        <v>769.2186132763809</v>
       </c>
       <c r="P12" t="n">
-        <v>871.9048215275938</v>
+        <v>871.9048215275949</v>
       </c>
       <c r="Q12" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297378</v>
       </c>
       <c r="R12" t="n">
-        <v>890.6286359297367</v>
+        <v>867.5251443686486</v>
       </c>
       <c r="S12" t="n">
-        <v>740.566029332321</v>
+        <v>867.5251443686486</v>
       </c>
       <c r="T12" t="n">
-        <v>543.4474404001332</v>
+        <v>867.5251443686486</v>
       </c>
       <c r="U12" t="n">
-        <v>543.4474404001332</v>
+        <v>867.5251443686486</v>
       </c>
       <c r="V12" t="n">
-        <v>543.4474404001332</v>
+        <v>642.6189231742703</v>
       </c>
       <c r="W12" t="n">
-        <v>470.0359424200627</v>
+        <v>642.6189231742703</v>
       </c>
       <c r="X12" t="n">
-        <v>470.0359424200627</v>
+        <v>642.6189231742703</v>
       </c>
       <c r="Y12" t="n">
-        <v>470.0359424200627</v>
+        <v>434.8586244093164</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>186.7487556465016</v>
+        <v>444.9298355918294</v>
       </c>
       <c r="C13" t="n">
-        <v>17.81257271859473</v>
+        <v>312.6156137988983</v>
       </c>
       <c r="D13" t="n">
-        <v>17.81257271859473</v>
+        <v>312.6156137988983</v>
       </c>
       <c r="E13" t="n">
-        <v>17.81257271859473</v>
+        <v>164.7025202165051</v>
       </c>
       <c r="F13" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="G13" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="H13" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="I13" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="J13" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="K13" t="n">
-        <v>115.7982774083839</v>
+        <v>115.798277408384</v>
       </c>
       <c r="L13" t="n">
-        <v>296.7126787168869</v>
+        <v>296.712678716887</v>
       </c>
       <c r="M13" t="n">
-        <v>497.8506719203921</v>
+        <v>497.8506719203922</v>
       </c>
       <c r="N13" t="n">
-        <v>699.6406696328909</v>
+        <v>699.640669632891</v>
       </c>
       <c r="O13" t="n">
-        <v>767.157575102823</v>
+        <v>870.010097663454</v>
       </c>
       <c r="P13" t="n">
-        <v>889.4173707822652</v>
+        <v>890.6286359297378</v>
       </c>
       <c r="Q13" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297378</v>
       </c>
       <c r="R13" t="n">
-        <v>758.9414974385973</v>
+        <v>890.6286359297378</v>
       </c>
       <c r="S13" t="n">
-        <v>758.9414974385973</v>
+        <v>890.6286359297378</v>
       </c>
       <c r="T13" t="n">
-        <v>636.5611980352576</v>
+        <v>890.6286359297378</v>
       </c>
       <c r="U13" t="n">
-        <v>636.5611980352576</v>
+        <v>890.6286359297378</v>
       </c>
       <c r="V13" t="n">
-        <v>411.6549768408796</v>
+        <v>890.6286359297378</v>
       </c>
       <c r="W13" t="n">
-        <v>186.7487556465016</v>
+        <v>665.7224147353595</v>
       </c>
       <c r="X13" t="n">
-        <v>186.7487556465016</v>
+        <v>665.7224147353595</v>
       </c>
       <c r="Y13" t="n">
-        <v>186.7487556465016</v>
+        <v>444.9298355918294</v>
       </c>
     </row>
     <row r="14">
@@ -5266,10 +5266,10 @@
         <v>242.718793912973</v>
       </c>
       <c r="F14" t="n">
-        <v>17.81257271859476</v>
+        <v>242.718793912973</v>
       </c>
       <c r="G14" t="n">
-        <v>17.81257271859476</v>
+        <v>242.718793912973</v>
       </c>
       <c r="H14" t="n">
         <v>17.81257271859476</v>
@@ -5302,19 +5302,19 @@
         <v>890.6286359297378</v>
       </c>
       <c r="R14" t="n">
-        <v>890.6286359297378</v>
+        <v>886.8626855510309</v>
       </c>
       <c r="S14" t="n">
-        <v>733.047445651531</v>
+        <v>729.2814952728243</v>
       </c>
       <c r="T14" t="n">
-        <v>733.047445651531</v>
+        <v>514.2191943184744</v>
       </c>
       <c r="U14" t="n">
-        <v>508.1412244571528</v>
+        <v>467.6250151073513</v>
       </c>
       <c r="V14" t="n">
-        <v>467.6250151073513</v>
+        <v>242.718793912973</v>
       </c>
       <c r="W14" t="n">
         <v>242.718793912973</v>
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>457.8709145298267</v>
+        <v>267.9727571764892</v>
       </c>
       <c r="C15" t="n">
-        <v>314.9820219928777</v>
+        <v>267.9727571764892</v>
       </c>
       <c r="D15" t="n">
-        <v>166.0476123316264</v>
+        <v>119.0383475152379</v>
       </c>
       <c r="E15" t="n">
-        <v>166.0476123316264</v>
+        <v>119.0383475152379</v>
       </c>
       <c r="F15" t="n">
-        <v>166.0476123316264</v>
+        <v>119.0383475152379</v>
       </c>
       <c r="G15" t="n">
-        <v>166.0476123316264</v>
+        <v>119.0383475152379</v>
       </c>
       <c r="H15" t="n">
-        <v>64.8218375349833</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="I15" t="n">
         <v>17.81257271859476</v>
@@ -5384,25 +5384,25 @@
         <v>890.6286359297378</v>
       </c>
       <c r="S15" t="n">
-        <v>890.6286359297378</v>
+        <v>868.9458155964683</v>
       </c>
       <c r="T15" t="n">
-        <v>890.6286359297378</v>
+        <v>868.9458155964683</v>
       </c>
       <c r="U15" t="n">
-        <v>890.6286359297378</v>
+        <v>868.9458155964683</v>
       </c>
       <c r="V15" t="n">
-        <v>890.6286359297378</v>
+        <v>644.03959440209</v>
       </c>
       <c r="W15" t="n">
-        <v>665.7224147353595</v>
+        <v>644.03959440209</v>
       </c>
       <c r="X15" t="n">
-        <v>457.8709145298267</v>
+        <v>436.1880941965572</v>
       </c>
       <c r="Y15" t="n">
-        <v>457.8709145298267</v>
+        <v>436.1880941965572</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>215.909972346603</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="C16" t="n">
-        <v>215.909972346603</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="D16" t="n">
-        <v>215.909972346603</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="E16" t="n">
-        <v>215.909972346603</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="F16" t="n">
-        <v>69.02002484869266</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="G16" t="n">
         <v>17.81257271859476</v>
@@ -5439,19 +5439,19 @@
         <v>17.81257271859476</v>
       </c>
       <c r="K16" t="n">
-        <v>115.798277408384</v>
+        <v>17.81257271859476</v>
       </c>
       <c r="L16" t="n">
-        <v>296.712678716887</v>
+        <v>198.7269740270978</v>
       </c>
       <c r="M16" t="n">
-        <v>497.8506719203922</v>
+        <v>399.8649672306029</v>
       </c>
       <c r="N16" t="n">
-        <v>596.7881470722612</v>
+        <v>601.6549649431017</v>
       </c>
       <c r="O16" t="n">
-        <v>767.1575751028241</v>
+        <v>772.0243929736647</v>
       </c>
       <c r="P16" t="n">
         <v>889.4173707822663</v>
@@ -5466,22 +5466,22 @@
         <v>890.6286359297378</v>
       </c>
       <c r="T16" t="n">
+        <v>890.6286359297378</v>
+      </c>
+      <c r="U16" t="n">
         <v>665.7224147353595</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
+        <v>665.7224147353595</v>
+      </c>
+      <c r="W16" t="n">
         <v>440.8161935409813</v>
       </c>
-      <c r="V16" t="n">
-        <v>440.8161935409813</v>
-      </c>
-      <c r="W16" t="n">
-        <v>215.909972346603</v>
-      </c>
       <c r="X16" t="n">
-        <v>215.909972346603</v>
+        <v>238.6051518621249</v>
       </c>
       <c r="Y16" t="n">
-        <v>215.909972346603</v>
+        <v>17.81257271859476</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>467.6250151073513</v>
+        <v>446.8941634023025</v>
       </c>
       <c r="C17" t="n">
-        <v>242.718793912973</v>
+        <v>446.8941634023025</v>
       </c>
       <c r="D17" t="n">
-        <v>242.718793912973</v>
+        <v>221.9879422079243</v>
       </c>
       <c r="E17" t="n">
-        <v>242.718793912973</v>
+        <v>221.9879422079243</v>
       </c>
       <c r="F17" t="n">
-        <v>242.718793912973</v>
+        <v>221.9879422079243</v>
       </c>
       <c r="G17" t="n">
-        <v>17.81257271859476</v>
+        <v>221.9879422079243</v>
       </c>
       <c r="H17" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="I17" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="J17" t="n">
         <v>34.05974234075597</v>
@@ -5527,40 +5527,40 @@
         <v>415.586511770486</v>
       </c>
       <c r="N17" t="n">
-        <v>599.436243673493</v>
+        <v>599.4362436734925</v>
       </c>
       <c r="O17" t="n">
-        <v>759.7050708974411</v>
+        <v>759.7050708974407</v>
       </c>
       <c r="P17" t="n">
-        <v>861.9898061237606</v>
+        <v>861.9898061237601</v>
       </c>
       <c r="Q17" t="n">
-        <v>890.6286359297378</v>
+        <v>890.6286359297374</v>
       </c>
       <c r="R17" t="n">
-        <v>886.8626855510309</v>
+        <v>886.8626855510305</v>
       </c>
       <c r="S17" t="n">
-        <v>886.8626855510309</v>
+        <v>886.8626855510305</v>
       </c>
       <c r="T17" t="n">
-        <v>886.8626855510309</v>
+        <v>671.8003845966806</v>
       </c>
       <c r="U17" t="n">
-        <v>886.8626855510309</v>
+        <v>671.8003845966806</v>
       </c>
       <c r="V17" t="n">
-        <v>886.8626855510309</v>
+        <v>671.8003845966806</v>
       </c>
       <c r="W17" t="n">
-        <v>661.9564643566528</v>
+        <v>671.8003845966806</v>
       </c>
       <c r="X17" t="n">
-        <v>661.9564643566528</v>
+        <v>671.8003845966806</v>
       </c>
       <c r="Y17" t="n">
-        <v>467.6250151073513</v>
+        <v>671.8003845966806</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25.20439457049451</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="C18" t="n">
-        <v>25.20439457049451</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="D18" t="n">
-        <v>25.20439457049451</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="E18" t="n">
-        <v>25.20439457049451</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="F18" t="n">
-        <v>25.20439457049451</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="G18" t="n">
-        <v>25.20439457049451</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="H18" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="I18" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="J18" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="K18" t="n">
-        <v>80.34372630892096</v>
+        <v>124.7714519989689</v>
       </c>
       <c r="L18" t="n">
-        <v>210.7471202899192</v>
+        <v>255.1748459799671</v>
       </c>
       <c r="M18" t="n">
-        <v>382.2785985072779</v>
+        <v>426.7063241973258</v>
       </c>
       <c r="N18" t="n">
-        <v>572.7586494609542</v>
+        <v>617.186375151002</v>
       </c>
       <c r="O18" t="n">
-        <v>769.2186132763809</v>
+        <v>769.2186132763804</v>
       </c>
       <c r="P18" t="n">
-        <v>871.9048215275949</v>
+        <v>871.9048215275944</v>
       </c>
       <c r="Q18" t="n">
-        <v>890.6286359297378</v>
+        <v>890.6286359297374</v>
       </c>
       <c r="R18" t="n">
-        <v>890.6286359297378</v>
+        <v>890.6286359297374</v>
       </c>
       <c r="S18" t="n">
-        <v>890.6286359297378</v>
+        <v>740.5660293323217</v>
       </c>
       <c r="T18" t="n">
-        <v>890.6286359297378</v>
+        <v>675.385313872305</v>
       </c>
       <c r="U18" t="n">
-        <v>890.6286359297378</v>
+        <v>675.385313872305</v>
       </c>
       <c r="V18" t="n">
-        <v>665.7224147353595</v>
+        <v>450.4790926779268</v>
       </c>
       <c r="W18" t="n">
-        <v>440.8161935409813</v>
+        <v>225.5728714835487</v>
       </c>
       <c r="X18" t="n">
-        <v>232.9646933354484</v>
+        <v>225.5728714835487</v>
       </c>
       <c r="Y18" t="n">
-        <v>25.20439457049451</v>
+        <v>17.81257271859475</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>186.7487556465017</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="C19" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="D19" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="E19" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="F19" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="G19" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="H19" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="I19" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="J19" t="n">
-        <v>17.81257271859476</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="K19" t="n">
-        <v>115.798277408384</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="L19" t="n">
-        <v>296.712678716887</v>
+        <v>195.0714213037282</v>
       </c>
       <c r="M19" t="n">
-        <v>497.8506719203922</v>
+        <v>396.2094145072334</v>
       </c>
       <c r="N19" t="n">
-        <v>699.640669632891</v>
+        <v>597.9994122197322</v>
       </c>
       <c r="O19" t="n">
-        <v>870.010097663454</v>
+        <v>768.3688402502952</v>
       </c>
       <c r="P19" t="n">
-        <v>889.4173707822663</v>
+        <v>890.6286359297374</v>
       </c>
       <c r="Q19" t="n">
-        <v>890.6286359297378</v>
+        <v>890.6286359297374</v>
       </c>
       <c r="R19" t="n">
-        <v>890.6286359297378</v>
+        <v>890.6286359297374</v>
       </c>
       <c r="S19" t="n">
-        <v>682.7196911108514</v>
+        <v>874.1797011319688</v>
       </c>
       <c r="T19" t="n">
-        <v>632.44755598441</v>
+        <v>649.2734799375908</v>
       </c>
       <c r="U19" t="n">
-        <v>407.5413347900318</v>
+        <v>649.2734799375908</v>
       </c>
       <c r="V19" t="n">
-        <v>407.5413347900318</v>
+        <v>424.3672587432126</v>
       </c>
       <c r="W19" t="n">
-        <v>407.5413347900318</v>
+        <v>199.4610375488344</v>
       </c>
       <c r="X19" t="n">
-        <v>407.5413347900318</v>
+        <v>199.4610375488344</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.7487556465017</v>
+        <v>199.4610375488344</v>
       </c>
     </row>
     <row r="20">
@@ -5731,13 +5731,13 @@
         <v>242.718793912973</v>
       </c>
       <c r="C20" t="n">
-        <v>17.81257271859476</v>
+        <v>242.718793912973</v>
       </c>
       <c r="D20" t="n">
-        <v>17.81257271859476</v>
+        <v>242.718793912973</v>
       </c>
       <c r="E20" t="n">
-        <v>17.81257271859476</v>
+        <v>242.718793912973</v>
       </c>
       <c r="F20" t="n">
         <v>17.81257271859476</v>
@@ -5776,22 +5776,22 @@
         <v>890.6286359297378</v>
       </c>
       <c r="R20" t="n">
-        <v>890.6286359297378</v>
+        <v>886.8626855510309</v>
       </c>
       <c r="S20" t="n">
-        <v>890.6286359297378</v>
+        <v>729.2814952728243</v>
       </c>
       <c r="T20" t="n">
-        <v>692.5312363017295</v>
+        <v>729.2814952728243</v>
       </c>
       <c r="U20" t="n">
-        <v>692.5312363017295</v>
+        <v>729.2814952728243</v>
       </c>
       <c r="V20" t="n">
+        <v>504.375274078446</v>
+      </c>
+      <c r="W20" t="n">
         <v>467.6250151073513</v>
-      </c>
-      <c r="W20" t="n">
-        <v>242.718793912973</v>
       </c>
       <c r="X20" t="n">
         <v>242.718793912973</v>
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17.81257271859476</v>
+        <v>237.7400354771287</v>
       </c>
       <c r="C21" t="n">
-        <v>17.81257271859476</v>
+        <v>63.28700619600167</v>
       </c>
       <c r="D21" t="n">
-        <v>17.81257271859476</v>
+        <v>63.28700619600167</v>
       </c>
       <c r="E21" t="n">
-        <v>17.81257271859476</v>
+        <v>63.28700619600167</v>
       </c>
       <c r="F21" t="n">
-        <v>17.81257271859476</v>
+        <v>63.28700619600167</v>
       </c>
       <c r="G21" t="n">
         <v>17.81257271859476</v>
@@ -5855,28 +5855,28 @@
         <v>890.6286359297378</v>
       </c>
       <c r="R21" t="n">
-        <v>890.6286359297378</v>
+        <v>867.5251443686486</v>
       </c>
       <c r="S21" t="n">
-        <v>815.8130186301828</v>
+        <v>867.5251443686486</v>
       </c>
       <c r="T21" t="n">
-        <v>618.694429697995</v>
+        <v>670.4065554364608</v>
       </c>
       <c r="U21" t="n">
-        <v>393.7882085036167</v>
+        <v>445.5003342420826</v>
       </c>
       <c r="V21" t="n">
-        <v>393.7882085036167</v>
+        <v>445.5003342420826</v>
       </c>
       <c r="W21" t="n">
-        <v>393.7882085036167</v>
+        <v>445.5003342420826</v>
       </c>
       <c r="X21" t="n">
-        <v>393.7882085036167</v>
+        <v>445.5003342420826</v>
       </c>
       <c r="Y21" t="n">
-        <v>186.0279097386628</v>
+        <v>237.7400354771287</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.81257271859476</v>
+        <v>165.7256663009879</v>
       </c>
       <c r="C22" t="n">
-        <v>17.81257271859476</v>
+        <v>165.7256663009879</v>
       </c>
       <c r="D22" t="n">
-        <v>17.81257271859476</v>
+        <v>165.7256663009879</v>
       </c>
       <c r="E22" t="n">
         <v>17.81257271859476</v>
@@ -5922,40 +5922,40 @@
         <v>497.8506719203922</v>
       </c>
       <c r="N22" t="n">
-        <v>596.7881470722612</v>
+        <v>699.640669632891</v>
       </c>
       <c r="O22" t="n">
-        <v>767.1575751028241</v>
+        <v>870.010097663454</v>
       </c>
       <c r="P22" t="n">
-        <v>889.4173707822663</v>
+        <v>890.6286359297378</v>
       </c>
       <c r="Q22" t="n">
         <v>890.6286359297378</v>
       </c>
       <c r="R22" t="n">
-        <v>758.9414974385984</v>
+        <v>890.6286359297378</v>
       </c>
       <c r="S22" t="n">
-        <v>551.032552619712</v>
+        <v>890.6286359297378</v>
       </c>
       <c r="T22" t="n">
-        <v>326.1263314253337</v>
+        <v>890.6286359297378</v>
       </c>
       <c r="U22" t="n">
-        <v>326.1263314253337</v>
+        <v>840.4443298841227</v>
       </c>
       <c r="V22" t="n">
-        <v>326.1263314253337</v>
+        <v>615.5381086897444</v>
       </c>
       <c r="W22" t="n">
-        <v>242.718793912973</v>
+        <v>390.6318874953661</v>
       </c>
       <c r="X22" t="n">
-        <v>17.81257271859476</v>
+        <v>165.7256663009879</v>
       </c>
       <c r="Y22" t="n">
-        <v>17.81257271859476</v>
+        <v>165.7256663009879</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>522.7298813483484</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="C23" t="n">
         <v>271.3207425698045</v>
@@ -5974,13 +5974,13 @@
         <v>271.3207425698045</v>
       </c>
       <c r="E23" t="n">
-        <v>19.91160379126067</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="F23" t="n">
-        <v>19.91160379126067</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="G23" t="n">
-        <v>19.91160379126067</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="H23" t="n">
         <v>19.91160379126067</v>
@@ -5989,25 +5989,25 @@
         <v>19.91160379126067</v>
       </c>
       <c r="J23" t="n">
-        <v>36.15877341342204</v>
+        <v>139.011295974052</v>
       </c>
       <c r="K23" t="n">
-        <v>111.2475872787748</v>
+        <v>214.1001098394048</v>
       </c>
       <c r="L23" t="n">
-        <v>241.3036625438003</v>
+        <v>344.1561851044302</v>
       </c>
       <c r="M23" t="n">
-        <v>417.6855428431521</v>
+        <v>520.5380654037821</v>
       </c>
       <c r="N23" t="n">
-        <v>601.535274746159</v>
+        <v>704.3877973067889</v>
       </c>
       <c r="O23" t="n">
-        <v>761.8041019701071</v>
+        <v>864.6566245307371</v>
       </c>
       <c r="P23" t="n">
-        <v>864.0888371964264</v>
+        <v>966.9413597570564</v>
       </c>
       <c r="Q23" t="n">
         <v>995.5801895630336</v>
@@ -6019,22 +6019,22 @@
         <v>834.2330489061201</v>
       </c>
       <c r="T23" t="n">
-        <v>834.2330489061201</v>
+        <v>619.1707479517702</v>
       </c>
       <c r="U23" t="n">
-        <v>582.8239101275763</v>
+        <v>522.7298813483484</v>
       </c>
       <c r="V23" t="n">
-        <v>582.8239101275763</v>
+        <v>522.7298813483484</v>
       </c>
       <c r="W23" t="n">
-        <v>582.8239101275763</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="X23" t="n">
-        <v>582.8239101275763</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="Y23" t="n">
-        <v>522.7298813483484</v>
+        <v>271.3207425698045</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.91160379126067</v>
+        <v>272.3321568078293</v>
       </c>
       <c r="C24" t="n">
-        <v>19.91160379126067</v>
+        <v>272.3321568078293</v>
       </c>
       <c r="D24" t="n">
-        <v>19.91160379126067</v>
+        <v>272.3321568078293</v>
       </c>
       <c r="E24" t="n">
-        <v>19.91160379126067</v>
+        <v>272.3321568078293</v>
       </c>
       <c r="F24" t="n">
-        <v>19.91160379126067</v>
+        <v>125.7975988347143</v>
       </c>
       <c r="G24" t="n">
         <v>19.91160379126067</v>
@@ -6104,16 +6104,16 @@
         <v>648.3989940334302</v>
       </c>
       <c r="V24" t="n">
-        <v>413.2468858016875</v>
+        <v>648.3989940334302</v>
       </c>
       <c r="W24" t="n">
-        <v>413.2468858016875</v>
+        <v>648.3989940334302</v>
       </c>
       <c r="X24" t="n">
-        <v>205.3953855961547</v>
+        <v>440.5474938278974</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.91160379126067</v>
+        <v>440.5474938278974</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.91160379126067</v>
+        <v>363.1174030373774</v>
       </c>
       <c r="C25" t="n">
-        <v>19.91160379126067</v>
+        <v>194.1812201094704</v>
       </c>
       <c r="D25" t="n">
-        <v>19.91160379126067</v>
+        <v>194.1812201094704</v>
       </c>
       <c r="E25" t="n">
-        <v>19.91160379126067</v>
+        <v>194.1812201094704</v>
       </c>
       <c r="F25" t="n">
-        <v>19.91160379126067</v>
+        <v>194.1812201094704</v>
       </c>
       <c r="G25" t="n">
-        <v>19.91160379126067</v>
+        <v>194.1812201094704</v>
       </c>
       <c r="H25" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
       <c r="I25" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
       <c r="J25" t="n">
         <v>19.91160379126067</v>
@@ -6159,40 +6159,40 @@
         <v>499.9497029930581</v>
       </c>
       <c r="N25" t="n">
-        <v>701.739700705557</v>
+        <v>701.7397007055569</v>
       </c>
       <c r="O25" t="n">
-        <v>872.1091287361199</v>
+        <v>872.1091287361198</v>
       </c>
       <c r="P25" t="n">
-        <v>994.3689244155621</v>
+        <v>994.368924415562</v>
       </c>
       <c r="Q25" t="n">
         <v>995.5801895630336</v>
       </c>
       <c r="R25" t="n">
-        <v>995.5801895630336</v>
+        <v>863.8930510718942</v>
       </c>
       <c r="S25" t="n">
-        <v>787.6712447441472</v>
+        <v>835.3191209594513</v>
       </c>
       <c r="T25" t="n">
-        <v>787.6712447441472</v>
+        <v>835.3191209594513</v>
       </c>
       <c r="U25" t="n">
-        <v>536.2621059656034</v>
+        <v>835.3191209594513</v>
       </c>
       <c r="V25" t="n">
-        <v>499.3102934678219</v>
+        <v>583.9099821809075</v>
       </c>
       <c r="W25" t="n">
-        <v>247.901154689278</v>
+        <v>583.9099821809075</v>
       </c>
       <c r="X25" t="n">
-        <v>19.91160379126067</v>
+        <v>583.9099821809075</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.91160379126067</v>
+        <v>363.1174030373774</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.91160379126067</v>
+        <v>522.7298813483484</v>
       </c>
       <c r="C26" t="n">
-        <v>19.91160379126067</v>
+        <v>522.7298813483484</v>
       </c>
       <c r="D26" t="n">
-        <v>19.91160379126067</v>
+        <v>522.7298813483484</v>
       </c>
       <c r="E26" t="n">
-        <v>19.91160379126067</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="F26" t="n">
-        <v>19.91160379126067</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="G26" t="n">
-        <v>19.91160379126067</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="H26" t="n">
         <v>19.91160379126067</v>
@@ -6226,7 +6226,7 @@
         <v>19.91160379126067</v>
       </c>
       <c r="J26" t="n">
-        <v>36.15877341342204</v>
+        <v>139.011295974052</v>
       </c>
       <c r="K26" t="n">
         <v>214.1001098394048</v>
@@ -6250,28 +6250,28 @@
         <v>995.5801895630336</v>
       </c>
       <c r="R26" t="n">
-        <v>995.5801895630336</v>
+        <v>991.8142391843268</v>
       </c>
       <c r="S26" t="n">
-        <v>837.9989992848268</v>
+        <v>991.8142391843268</v>
       </c>
       <c r="T26" t="n">
-        <v>622.9366983304769</v>
+        <v>991.8142391843268</v>
       </c>
       <c r="U26" t="n">
-        <v>371.5275595519331</v>
+        <v>991.8142391843268</v>
       </c>
       <c r="V26" t="n">
-        <v>371.5275595519331</v>
+        <v>991.8142391843268</v>
       </c>
       <c r="W26" t="n">
-        <v>371.5275595519331</v>
+        <v>774.1390201268922</v>
       </c>
       <c r="X26" t="n">
-        <v>271.3207425698045</v>
+        <v>774.1390201268922</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.91160379126067</v>
+        <v>774.1390201268922</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>378.837124832234</v>
+        <v>547.052461852302</v>
       </c>
       <c r="C27" t="n">
-        <v>204.384095551107</v>
+        <v>547.052461852302</v>
       </c>
       <c r="D27" t="n">
-        <v>204.384095551107</v>
+        <v>398.1180521910508</v>
       </c>
       <c r="E27" t="n">
-        <v>45.14664054565148</v>
+        <v>398.1180521910508</v>
       </c>
       <c r="F27" t="n">
-        <v>45.14664054565148</v>
+        <v>251.5834942179357</v>
       </c>
       <c r="G27" t="n">
-        <v>45.14664054565148</v>
+        <v>114.1100195096508</v>
       </c>
       <c r="H27" t="n">
-        <v>19.91160379126067</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="I27" t="n">
         <v>19.91160379126067</v>
       </c>
       <c r="J27" t="n">
-        <v>19.91160379126067</v>
+        <v>135.6005847439774</v>
       </c>
       <c r="K27" t="n">
-        <v>82.44275738158687</v>
+        <v>198.1317383343036</v>
       </c>
       <c r="L27" t="n">
-        <v>328.8488542984377</v>
+        <v>360.1263996132634</v>
       </c>
       <c r="M27" t="n">
         <v>531.6578778306221</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
       <c r="C28" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
       <c r="D28" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
       <c r="E28" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
       <c r="F28" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
       <c r="G28" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
       <c r="H28" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
       <c r="I28" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
       <c r="J28" t="n">
         <v>19.91160379126067</v>
       </c>
       <c r="K28" t="n">
-        <v>117.89730848105</v>
+        <v>117.8973084810499</v>
       </c>
       <c r="L28" t="n">
-        <v>298.811709789553</v>
+        <v>298.8117097895529</v>
       </c>
       <c r="M28" t="n">
         <v>499.9497029930582</v>
       </c>
       <c r="N28" t="n">
-        <v>701.739700705557</v>
+        <v>701.7397007055571</v>
       </c>
       <c r="O28" t="n">
-        <v>872.1091287361199</v>
+        <v>872.1091287361201</v>
       </c>
       <c r="P28" t="n">
         <v>994.3689244155621</v>
@@ -6411,25 +6411,25 @@
         <v>863.8930510718942</v>
       </c>
       <c r="S28" t="n">
-        <v>655.9841062530078</v>
+        <v>863.8930510718942</v>
       </c>
       <c r="T28" t="n">
-        <v>492.1133217133346</v>
+        <v>638.1489507674062</v>
       </c>
       <c r="U28" t="n">
-        <v>492.1133217133346</v>
+        <v>386.7398119888624</v>
       </c>
       <c r="V28" t="n">
-        <v>240.7041829347908</v>
+        <v>267.6770305938865</v>
       </c>
       <c r="W28" t="n">
-        <v>240.7041829347908</v>
+        <v>267.6770305938865</v>
       </c>
       <c r="X28" t="n">
-        <v>240.7041829347908</v>
+        <v>39.68747969586913</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586913</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>644.7341456337901</v>
+        <v>492.761912005946</v>
       </c>
       <c r="C29" t="n">
-        <v>393.3250068552463</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="D29" t="n">
-        <v>393.3250068552463</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="E29" t="n">
-        <v>141.9158680767025</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="F29" t="n">
-        <v>141.9158680767025</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="G29" t="n">
-        <v>141.9158680767025</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="H29" t="n">
-        <v>141.9158680767025</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="I29" t="n">
         <v>19.91160379126067</v>
       </c>
       <c r="J29" t="n">
-        <v>36.15877341342204</v>
+        <v>139.011295974052</v>
       </c>
       <c r="K29" t="n">
-        <v>111.2475872787748</v>
+        <v>214.1001098394048</v>
       </c>
       <c r="L29" t="n">
-        <v>241.3036625438003</v>
+        <v>344.1561851044302</v>
       </c>
       <c r="M29" t="n">
-        <v>417.6855428431521</v>
+        <v>520.5380654037821</v>
       </c>
       <c r="N29" t="n">
-        <v>601.535274746159</v>
+        <v>704.3877973067889</v>
       </c>
       <c r="O29" t="n">
-        <v>761.8041019701071</v>
+        <v>864.6566245307371</v>
       </c>
       <c r="P29" t="n">
-        <v>864.0888371964264</v>
+        <v>966.9413597570564</v>
       </c>
       <c r="Q29" t="n">
         <v>995.5801895630336</v>
@@ -6490,25 +6490,25 @@
         <v>995.5801895630336</v>
       </c>
       <c r="S29" t="n">
-        <v>896.143284412334</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="T29" t="n">
-        <v>896.143284412334</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="U29" t="n">
-        <v>896.143284412334</v>
+        <v>744.1710507844898</v>
       </c>
       <c r="V29" t="n">
-        <v>644.7341456337901</v>
+        <v>744.1710507844898</v>
       </c>
       <c r="W29" t="n">
-        <v>644.7341456337901</v>
+        <v>744.1710507844898</v>
       </c>
       <c r="X29" t="n">
-        <v>644.7341456337901</v>
+        <v>492.761912005946</v>
       </c>
       <c r="Y29" t="n">
-        <v>644.7341456337901</v>
+        <v>492.761912005946</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>60.65596423724733</v>
+        <v>489.8336007067539</v>
       </c>
       <c r="C30" t="n">
-        <v>60.65596423724733</v>
+        <v>315.380571425627</v>
       </c>
       <c r="D30" t="n">
-        <v>19.91160379126067</v>
+        <v>166.4461617643757</v>
       </c>
       <c r="E30" t="n">
-        <v>19.91160379126067</v>
+        <v>166.4461617643757</v>
       </c>
       <c r="F30" t="n">
         <v>19.91160379126067</v>
@@ -6542,22 +6542,22 @@
         <v>19.91160379126067</v>
       </c>
       <c r="J30" t="n">
-        <v>19.91160379126067</v>
+        <v>51.18914910608638</v>
       </c>
       <c r="K30" t="n">
-        <v>82.44275738158687</v>
+        <v>113.7203026964126</v>
       </c>
       <c r="L30" t="n">
-        <v>212.8461513625851</v>
+        <v>360.1263996132634</v>
       </c>
       <c r="M30" t="n">
-        <v>459.2522482794359</v>
+        <v>531.6578778306221</v>
       </c>
       <c r="N30" t="n">
-        <v>649.7322992331121</v>
+        <v>722.1379287842983</v>
       </c>
       <c r="O30" t="n">
-        <v>801.7645373584905</v>
+        <v>874.1701669096767</v>
       </c>
       <c r="P30" t="n">
         <v>976.8563751608907</v>
@@ -6566,28 +6566,28 @@
         <v>995.5801895630336</v>
       </c>
       <c r="R30" t="n">
-        <v>972.4766980019444</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="S30" t="n">
-        <v>972.4766980019444</v>
+        <v>845.517582965618</v>
       </c>
       <c r="T30" t="n">
-        <v>775.3581090697567</v>
+        <v>845.517582965618</v>
       </c>
       <c r="U30" t="n">
-        <v>547.2172112475339</v>
+        <v>845.517582965618</v>
       </c>
       <c r="V30" t="n">
-        <v>312.0651030157912</v>
+        <v>845.517582965618</v>
       </c>
       <c r="W30" t="n">
-        <v>60.65596423724733</v>
+        <v>845.517582965618</v>
       </c>
       <c r="X30" t="n">
-        <v>60.65596423724733</v>
+        <v>697.5938994717078</v>
       </c>
       <c r="Y30" t="n">
-        <v>60.65596423724733</v>
+        <v>489.8336007067539</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>316.9181907015068</v>
+        <v>336.4584347141296</v>
       </c>
       <c r="C31" t="n">
-        <v>316.9181907015068</v>
+        <v>336.4584347141296</v>
       </c>
       <c r="D31" t="n">
-        <v>166.801551289171</v>
+        <v>336.4584347141296</v>
       </c>
       <c r="E31" t="n">
-        <v>166.801551289171</v>
+        <v>188.5453411317365</v>
       </c>
       <c r="F31" t="n">
-        <v>19.91160379126067</v>
+        <v>188.5453411317365</v>
       </c>
       <c r="G31" t="n">
         <v>19.91160379126067</v>
@@ -6621,13 +6621,13 @@
         <v>19.91160379126067</v>
       </c>
       <c r="J31" t="n">
-        <v>19.91160379126067</v>
+        <v>19.91160379126076</v>
       </c>
       <c r="K31" t="n">
-        <v>117.8973084810499</v>
+        <v>117.89730848105</v>
       </c>
       <c r="L31" t="n">
-        <v>298.8117097895529</v>
+        <v>298.811709789553</v>
       </c>
       <c r="M31" t="n">
         <v>499.9497029930582</v>
@@ -6645,28 +6645,28 @@
         <v>995.5801895630336</v>
       </c>
       <c r="R31" t="n">
-        <v>863.8930510718942</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="S31" t="n">
-        <v>655.9841062530078</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="T31" t="n">
-        <v>430.2400059485198</v>
+        <v>769.8360892585456</v>
       </c>
       <c r="U31" t="n">
-        <v>316.9181907015068</v>
+        <v>769.8360892585456</v>
       </c>
       <c r="V31" t="n">
-        <v>316.9181907015068</v>
+        <v>769.8360892585456</v>
       </c>
       <c r="W31" t="n">
-        <v>316.9181907015068</v>
+        <v>564.447985612147</v>
       </c>
       <c r="X31" t="n">
-        <v>316.9181907015068</v>
+        <v>336.4584347141296</v>
       </c>
       <c r="Y31" t="n">
-        <v>316.9181907015068</v>
+        <v>336.4584347141296</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>371.5275595519331</v>
+        <v>776.7519382299769</v>
       </c>
       <c r="C32" t="n">
-        <v>371.5275595519331</v>
+        <v>525.3427994514331</v>
       </c>
       <c r="D32" t="n">
-        <v>371.5275595519331</v>
+        <v>525.3427994514331</v>
       </c>
       <c r="E32" t="n">
-        <v>120.1184207733893</v>
+        <v>525.3427994514331</v>
       </c>
       <c r="F32" t="n">
-        <v>19.91160379126067</v>
+        <v>525.3427994514331</v>
       </c>
       <c r="G32" t="n">
-        <v>19.91160379126067</v>
+        <v>273.9336606728892</v>
       </c>
       <c r="H32" t="n">
-        <v>19.91160379126067</v>
+        <v>22.52452189434538</v>
       </c>
       <c r="I32" t="n">
         <v>19.91160379126067</v>
       </c>
       <c r="J32" t="n">
-        <v>68.987079356553</v>
+        <v>139.011295974052</v>
       </c>
       <c r="K32" t="n">
-        <v>144.0758932219057</v>
+        <v>214.1001098394048</v>
       </c>
       <c r="L32" t="n">
-        <v>274.1319684869312</v>
+        <v>344.1561851044302</v>
       </c>
       <c r="M32" t="n">
         <v>520.5380654037821</v>
@@ -6724,28 +6724,28 @@
         <v>995.5801895630336</v>
       </c>
       <c r="R32" t="n">
-        <v>995.5801895630336</v>
+        <v>991.8142391843268</v>
       </c>
       <c r="S32" t="n">
-        <v>837.9989992848268</v>
+        <v>991.8142391843268</v>
       </c>
       <c r="T32" t="n">
-        <v>622.9366983304769</v>
+        <v>776.7519382299769</v>
       </c>
       <c r="U32" t="n">
-        <v>622.9366983304769</v>
+        <v>776.7519382299769</v>
       </c>
       <c r="V32" t="n">
-        <v>622.9366983304769</v>
+        <v>776.7519382299769</v>
       </c>
       <c r="W32" t="n">
-        <v>371.5275595519331</v>
+        <v>776.7519382299769</v>
       </c>
       <c r="X32" t="n">
-        <v>371.5275595519331</v>
+        <v>776.7519382299769</v>
       </c>
       <c r="Y32" t="n">
-        <v>371.5275595519331</v>
+        <v>776.7519382299769</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.91160379126067</v>
+        <v>406.802292434042</v>
       </c>
       <c r="C33" t="n">
-        <v>19.91160379126067</v>
+        <v>406.802292434042</v>
       </c>
       <c r="D33" t="n">
-        <v>19.91160379126067</v>
+        <v>257.8678827727908</v>
       </c>
       <c r="E33" t="n">
-        <v>19.91160379126067</v>
+        <v>98.63042776733528</v>
       </c>
       <c r="F33" t="n">
-        <v>19.91160379126067</v>
+        <v>98.63042776733528</v>
       </c>
       <c r="G33" t="n">
         <v>19.91160379126067</v>
@@ -6779,22 +6779,22 @@
         <v>19.91160379126067</v>
       </c>
       <c r="J33" t="n">
-        <v>135.6005847439774</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="K33" t="n">
-        <v>198.1317383343036</v>
+        <v>113.7203026964126</v>
       </c>
       <c r="L33" t="n">
-        <v>328.5351323153018</v>
+        <v>360.1263996132634</v>
       </c>
       <c r="M33" t="n">
-        <v>500.0666105326604</v>
+        <v>531.6578778306221</v>
       </c>
       <c r="N33" t="n">
-        <v>690.5466614863367</v>
+        <v>722.1379287842983</v>
       </c>
       <c r="O33" t="n">
-        <v>842.5788996117151</v>
+        <v>874.1701669096767</v>
       </c>
       <c r="P33" t="n">
         <v>976.8563751608907</v>
@@ -6809,22 +6809,22 @@
         <v>822.4140914045288</v>
       </c>
       <c r="T33" t="n">
-        <v>714.2331495665012</v>
+        <v>822.4140914045288</v>
       </c>
       <c r="U33" t="n">
-        <v>714.2331495665012</v>
+        <v>822.4140914045288</v>
       </c>
       <c r="V33" t="n">
-        <v>479.0810413347584</v>
+        <v>822.4140914045288</v>
       </c>
       <c r="W33" t="n">
-        <v>227.6719025562146</v>
+        <v>822.4140914045288</v>
       </c>
       <c r="X33" t="n">
-        <v>227.6719025562146</v>
+        <v>614.562591198996</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.91160379126067</v>
+        <v>406.802292434042</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.91160379126067</v>
+        <v>493.1557209576736</v>
       </c>
       <c r="C34" t="n">
-        <v>19.91160379126067</v>
+        <v>493.1557209576736</v>
       </c>
       <c r="D34" t="n">
-        <v>19.91160379126067</v>
+        <v>343.0390815453378</v>
       </c>
       <c r="E34" t="n">
-        <v>19.91160379126067</v>
+        <v>343.0390815453378</v>
       </c>
       <c r="F34" t="n">
-        <v>19.91160379126067</v>
+        <v>343.0390815453378</v>
       </c>
       <c r="G34" t="n">
-        <v>19.91160379126067</v>
+        <v>174.405344204862</v>
       </c>
       <c r="H34" t="n">
         <v>19.91160379126067</v>
@@ -6858,52 +6858,52 @@
         <v>19.91160379126067</v>
       </c>
       <c r="J34" t="n">
-        <v>19.91160379126067</v>
+        <v>19.91160379126076</v>
       </c>
       <c r="K34" t="n">
-        <v>117.8973084810499</v>
+        <v>117.89730848105</v>
       </c>
       <c r="L34" t="n">
-        <v>298.8117097895529</v>
+        <v>298.811709789553</v>
       </c>
       <c r="M34" t="n">
-        <v>499.9497029930581</v>
+        <v>499.9497029930582</v>
       </c>
       <c r="N34" t="n">
-        <v>701.7397007055569</v>
+        <v>701.739700705557</v>
       </c>
       <c r="O34" t="n">
-        <v>872.1091287361198</v>
+        <v>872.1091287361199</v>
       </c>
       <c r="P34" t="n">
-        <v>994.368924415562</v>
+        <v>994.3689244155621</v>
       </c>
       <c r="Q34" t="n">
-        <v>995.5801895630335</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="R34" t="n">
-        <v>863.8930510718941</v>
+        <v>995.5801895630336</v>
       </c>
       <c r="S34" t="n">
-        <v>655.9841062530077</v>
+        <v>900.5482860924013</v>
       </c>
       <c r="T34" t="n">
-        <v>430.2400059485196</v>
+        <v>674.8041857879133</v>
       </c>
       <c r="U34" t="n">
-        <v>430.2400059485196</v>
+        <v>674.8041857879133</v>
       </c>
       <c r="V34" t="n">
-        <v>430.2400059485196</v>
+        <v>674.8041857879133</v>
       </c>
       <c r="W34" t="n">
-        <v>178.8308671699758</v>
+        <v>674.8041857879133</v>
       </c>
       <c r="X34" t="n">
-        <v>178.8308671699758</v>
+        <v>674.8041857879133</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.91160379126067</v>
+        <v>674.8041857879133</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>242.7187939129732</v>
+        <v>504.3752740784458</v>
       </c>
       <c r="C35" t="n">
-        <v>242.7187939129732</v>
+        <v>504.3752740784458</v>
       </c>
       <c r="D35" t="n">
-        <v>17.81257271859477</v>
+        <v>504.3752740784458</v>
       </c>
       <c r="E35" t="n">
-        <v>17.81257271859477</v>
+        <v>504.3752740784458</v>
       </c>
       <c r="F35" t="n">
-        <v>17.81257271859477</v>
+        <v>467.6250151073511</v>
       </c>
       <c r="G35" t="n">
-        <v>17.81257271859477</v>
+        <v>242.718793912973</v>
       </c>
       <c r="H35" t="n">
-        <v>17.81257271859477</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="I35" t="n">
-        <v>17.81257271859477</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="J35" t="n">
-        <v>34.05974234075613</v>
+        <v>34.05974234075596</v>
       </c>
       <c r="K35" t="n">
-        <v>109.1485562061089</v>
+        <v>109.1485562061087</v>
       </c>
       <c r="L35" t="n">
-        <v>239.2046314711343</v>
+        <v>239.2046314711342</v>
       </c>
       <c r="M35" t="n">
-        <v>415.5865117704862</v>
+        <v>415.586511770486</v>
       </c>
       <c r="N35" t="n">
-        <v>599.436243673493</v>
+        <v>599.4362436734929</v>
       </c>
       <c r="O35" t="n">
-        <v>759.7050708974411</v>
+        <v>759.705070897441</v>
       </c>
       <c r="P35" t="n">
-        <v>861.9898061237612</v>
+        <v>861.9898061237603</v>
       </c>
       <c r="Q35" t="n">
-        <v>890.6286359297385</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="R35" t="n">
-        <v>886.8626855510316</v>
+        <v>886.8626855510307</v>
       </c>
       <c r="S35" t="n">
-        <v>729.2814952728249</v>
+        <v>729.281495272824</v>
       </c>
       <c r="T35" t="n">
-        <v>514.219194318475</v>
+        <v>729.281495272824</v>
       </c>
       <c r="U35" t="n">
-        <v>289.3129731240966</v>
+        <v>729.281495272824</v>
       </c>
       <c r="V35" t="n">
-        <v>242.7187939129732</v>
+        <v>504.3752740784458</v>
       </c>
       <c r="W35" t="n">
-        <v>242.7187939129732</v>
+        <v>504.3752740784458</v>
       </c>
       <c r="X35" t="n">
-        <v>242.7187939129732</v>
+        <v>504.3752740784458</v>
       </c>
       <c r="Y35" t="n">
-        <v>242.7187939129732</v>
+        <v>504.3752740784458</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17.81257271859477</v>
+        <v>93.63499801137777</v>
       </c>
       <c r="C36" t="n">
-        <v>17.81257271859477</v>
+        <v>93.63499801137777</v>
       </c>
       <c r="D36" t="n">
-        <v>17.81257271859477</v>
+        <v>93.63499801137777</v>
       </c>
       <c r="E36" t="n">
-        <v>17.81257271859477</v>
+        <v>93.63499801137777</v>
       </c>
       <c r="F36" t="n">
-        <v>17.81257271859477</v>
+        <v>93.63499801137777</v>
       </c>
       <c r="G36" t="n">
-        <v>17.81257271859477</v>
+        <v>93.63499801137777</v>
       </c>
       <c r="H36" t="n">
-        <v>17.81257271859477</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="I36" t="n">
-        <v>17.81257271859477</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="J36" t="n">
-        <v>17.81257271859477</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="K36" t="n">
-        <v>80.34372630892096</v>
+        <v>80.34372630892095</v>
       </c>
       <c r="L36" t="n">
-        <v>255.1748459799682</v>
+        <v>210.7471202899192</v>
       </c>
       <c r="M36" t="n">
-        <v>426.7063241973269</v>
+        <v>382.2785985072778</v>
       </c>
       <c r="N36" t="n">
-        <v>617.1863751510032</v>
+        <v>572.7586494609541</v>
       </c>
       <c r="O36" t="n">
-        <v>769.2186132763816</v>
+        <v>724.7908875863325</v>
       </c>
       <c r="P36" t="n">
-        <v>871.9048215275956</v>
+        <v>827.4770958375465</v>
       </c>
       <c r="Q36" t="n">
-        <v>890.6286359297385</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="R36" t="n">
-        <v>890.6286359297385</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="S36" t="n">
-        <v>843.6006508923736</v>
+        <v>740.5660293323219</v>
       </c>
       <c r="T36" t="n">
-        <v>843.6006508923736</v>
+        <v>543.4474404001342</v>
       </c>
       <c r="U36" t="n">
-        <v>618.6944296979951</v>
+        <v>318.541219205756</v>
       </c>
       <c r="V36" t="n">
-        <v>393.7882085036167</v>
+        <v>93.63499801137777</v>
       </c>
       <c r="W36" t="n">
-        <v>393.7882085036167</v>
+        <v>93.63499801137777</v>
       </c>
       <c r="X36" t="n">
-        <v>393.7882085036167</v>
+        <v>93.63499801137777</v>
       </c>
       <c r="Y36" t="n">
-        <v>186.0279097386628</v>
+        <v>93.63499801137777</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17.81257271859477</v>
+        <v>655.8214130450149</v>
       </c>
       <c r="C37" t="n">
-        <v>17.81257271859477</v>
+        <v>486.885230117108</v>
       </c>
       <c r="D37" t="n">
-        <v>17.81257271859477</v>
+        <v>486.885230117108</v>
       </c>
       <c r="E37" t="n">
-        <v>17.81257271859477</v>
+        <v>338.9721365347149</v>
       </c>
       <c r="F37" t="n">
-        <v>17.81257271859477</v>
+        <v>192.0821890368045</v>
       </c>
       <c r="G37" t="n">
-        <v>17.81257271859477</v>
+        <v>192.0821890368045</v>
       </c>
       <c r="H37" t="n">
-        <v>17.81257271859477</v>
+        <v>37.58844862320321</v>
       </c>
       <c r="I37" t="n">
-        <v>17.81257271859477</v>
+        <v>37.58844862320321</v>
       </c>
       <c r="J37" t="n">
-        <v>17.81257271859477</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="K37" t="n">
-        <v>17.81257271859477</v>
+        <v>115.798277408384</v>
       </c>
       <c r="L37" t="n">
-        <v>198.7269740270978</v>
+        <v>195.0714213037285</v>
       </c>
       <c r="M37" t="n">
-        <v>399.8649672306029</v>
+        <v>396.2094145072336</v>
       </c>
       <c r="N37" t="n">
-        <v>601.6549649431017</v>
+        <v>597.9994122197324</v>
       </c>
       <c r="O37" t="n">
-        <v>767.1575751028248</v>
+        <v>768.3688402502954</v>
       </c>
       <c r="P37" t="n">
-        <v>889.417370782267</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="Q37" t="n">
-        <v>890.6286359297385</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="R37" t="n">
-        <v>758.9414974385991</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="S37" t="n">
-        <v>551.0325526197126</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="T37" t="n">
-        <v>551.0325526197126</v>
+        <v>665.7224147353594</v>
       </c>
       <c r="U37" t="n">
-        <v>326.1263314253342</v>
+        <v>655.8214130450149</v>
       </c>
       <c r="V37" t="n">
-        <v>326.1263314253342</v>
+        <v>655.8214130450149</v>
       </c>
       <c r="W37" t="n">
-        <v>326.1263314253342</v>
+        <v>655.8214130450149</v>
       </c>
       <c r="X37" t="n">
-        <v>326.1263314253342</v>
+        <v>655.8214130450149</v>
       </c>
       <c r="Y37" t="n">
-        <v>105.3337522818041</v>
+        <v>655.8214130450149</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>225.7538925866313</v>
+        <v>467.6250151073511</v>
       </c>
       <c r="C38" t="n">
-        <v>225.7538925866313</v>
+        <v>242.718793912973</v>
       </c>
       <c r="D38" t="n">
-        <v>17.81257271859475</v>
+        <v>242.718793912973</v>
       </c>
       <c r="E38" t="n">
-        <v>17.81257271859475</v>
+        <v>242.718793912973</v>
       </c>
       <c r="F38" t="n">
-        <v>17.81257271859475</v>
+        <v>242.718793912973</v>
       </c>
       <c r="G38" t="n">
-        <v>17.81257271859475</v>
+        <v>242.718793912973</v>
       </c>
       <c r="H38" t="n">
         <v>17.81257271859475</v>
@@ -7198,28 +7198,28 @@
         <v>890.6286359297376</v>
       </c>
       <c r="R38" t="n">
-        <v>890.6286359297376</v>
+        <v>886.8626855510307</v>
       </c>
       <c r="S38" t="n">
-        <v>890.6286359297376</v>
+        <v>886.8626855510307</v>
       </c>
       <c r="T38" t="n">
-        <v>675.5663349753877</v>
+        <v>886.8626855510307</v>
       </c>
       <c r="U38" t="n">
-        <v>675.5663349753877</v>
+        <v>692.5312363017293</v>
       </c>
       <c r="V38" t="n">
-        <v>450.6601137810095</v>
+        <v>692.5312363017293</v>
       </c>
       <c r="W38" t="n">
-        <v>225.7538925866313</v>
+        <v>467.6250151073511</v>
       </c>
       <c r="X38" t="n">
-        <v>225.7538925866313</v>
+        <v>467.6250151073511</v>
       </c>
       <c r="Y38" t="n">
-        <v>225.7538925866313</v>
+        <v>467.6250151073511</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>87.67742887971286</v>
+        <v>59.79859517694354</v>
       </c>
       <c r="C39" t="n">
-        <v>87.67742887971286</v>
+        <v>59.79859517694354</v>
       </c>
       <c r="D39" t="n">
-        <v>17.81257271859475</v>
+        <v>59.79859517694354</v>
       </c>
       <c r="E39" t="n">
-        <v>17.81257271859475</v>
+        <v>59.79859517694354</v>
       </c>
       <c r="F39" t="n">
-        <v>17.81257271859475</v>
+        <v>59.79859517694354</v>
       </c>
       <c r="G39" t="n">
-        <v>17.81257271859475</v>
+        <v>59.79859517694354</v>
       </c>
       <c r="H39" t="n">
-        <v>17.81257271859475</v>
+        <v>59.79859517694354</v>
       </c>
       <c r="I39" t="n">
         <v>17.81257271859475</v>
       </c>
       <c r="J39" t="n">
-        <v>17.81257271859475</v>
+        <v>62.2402984086429</v>
       </c>
       <c r="K39" t="n">
-        <v>80.34372630892095</v>
+        <v>124.7714519989691</v>
       </c>
       <c r="L39" t="n">
-        <v>210.7471202899192</v>
+        <v>255.1748459799673</v>
       </c>
       <c r="M39" t="n">
-        <v>382.2785985072778</v>
+        <v>426.706324197326</v>
       </c>
       <c r="N39" t="n">
-        <v>572.7586494609541</v>
+        <v>617.1863751510023</v>
       </c>
       <c r="O39" t="n">
-        <v>724.7908875863325</v>
+        <v>769.2186132763807</v>
       </c>
       <c r="P39" t="n">
-        <v>827.4770958375465</v>
+        <v>871.9048215275947</v>
       </c>
       <c r="Q39" t="n">
         <v>890.6286359297376</v>
@@ -7283,22 +7283,22 @@
         <v>717.4625377712327</v>
       </c>
       <c r="T39" t="n">
-        <v>520.343948839045</v>
+        <v>717.4625377712327</v>
       </c>
       <c r="U39" t="n">
-        <v>295.4377276446668</v>
+        <v>717.4625377712327</v>
       </c>
       <c r="V39" t="n">
-        <v>295.4377276446668</v>
+        <v>492.5563165768546</v>
       </c>
       <c r="W39" t="n">
-        <v>295.4377276446668</v>
+        <v>267.6500953824764</v>
       </c>
       <c r="X39" t="n">
-        <v>295.4377276446668</v>
+        <v>59.79859517694354</v>
       </c>
       <c r="Y39" t="n">
-        <v>87.67742887971286</v>
+        <v>59.79859517694354</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.81257271859475</v>
+        <v>659.9928728129145</v>
       </c>
       <c r="C40" t="n">
-        <v>17.81257271859475</v>
+        <v>491.0566898850076</v>
       </c>
       <c r="D40" t="n">
-        <v>17.81257271859475</v>
+        <v>340.9400504726719</v>
       </c>
       <c r="E40" t="n">
-        <v>17.81257271859475</v>
+        <v>340.9400504726719</v>
       </c>
       <c r="F40" t="n">
-        <v>17.81257271859475</v>
+        <v>340.9400504726719</v>
       </c>
       <c r="G40" t="n">
-        <v>17.81257271859475</v>
+        <v>172.3063131321961</v>
       </c>
       <c r="H40" t="n">
         <v>17.81257271859475</v>
@@ -7335,49 +7335,49 @@
         <v>17.81257271859475</v>
       </c>
       <c r="K40" t="n">
-        <v>17.81257271859475</v>
+        <v>115.798277408384</v>
       </c>
       <c r="L40" t="n">
-        <v>198.7269740270978</v>
+        <v>296.712678716887</v>
       </c>
       <c r="M40" t="n">
-        <v>394.9981493597621</v>
+        <v>497.8506719203922</v>
       </c>
       <c r="N40" t="n">
-        <v>596.7881470722609</v>
+        <v>699.640669632891</v>
       </c>
       <c r="O40" t="n">
-        <v>767.1575751028239</v>
+        <v>870.010097663454</v>
       </c>
       <c r="P40" t="n">
-        <v>889.4173707822661</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="Q40" t="n">
         <v>890.6286359297376</v>
       </c>
       <c r="R40" t="n">
-        <v>758.9414974385982</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="S40" t="n">
-        <v>551.0325526197117</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="T40" t="n">
-        <v>551.0325526197117</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="U40" t="n">
-        <v>326.1263314253335</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="V40" t="n">
-        <v>238.6051518621248</v>
+        <v>884.8990940072927</v>
       </c>
       <c r="W40" t="n">
-        <v>238.6051518621248</v>
+        <v>884.8990940072927</v>
       </c>
       <c r="X40" t="n">
-        <v>238.6051518621248</v>
+        <v>659.9928728129145</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.81257271859475</v>
+        <v>659.9928728129145</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>467.6250151073511</v>
+      </c>
+      <c r="C41" t="n">
+        <v>467.6250151073511</v>
+      </c>
+      <c r="D41" t="n">
+        <v>467.6250151073511</v>
+      </c>
+      <c r="E41" t="n">
+        <v>467.6250151073511</v>
+      </c>
+      <c r="F41" t="n">
         <v>242.718793912973</v>
-      </c>
-      <c r="C41" t="n">
-        <v>242.718793912973</v>
-      </c>
-      <c r="D41" t="n">
-        <v>17.81257271859475</v>
-      </c>
-      <c r="E41" t="n">
-        <v>17.81257271859475</v>
-      </c>
-      <c r="F41" t="n">
-        <v>17.81257271859475</v>
       </c>
       <c r="G41" t="n">
         <v>17.81257271859475</v>
@@ -7417,10 +7417,10 @@
         <v>109.1485562061089</v>
       </c>
       <c r="L41" t="n">
-        <v>239.2046314711342</v>
+        <v>239.2046314711343</v>
       </c>
       <c r="M41" t="n">
-        <v>415.586511770486</v>
+        <v>415.5865117704862</v>
       </c>
       <c r="N41" t="n">
         <v>599.4362436734929</v>
@@ -7435,28 +7435,28 @@
         <v>890.6286359297376</v>
       </c>
       <c r="R41" t="n">
-        <v>886.8626855510307</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="S41" t="n">
-        <v>729.281495272824</v>
+        <v>733.0474456515308</v>
       </c>
       <c r="T41" t="n">
-        <v>692.5312363017293</v>
+        <v>733.0474456515308</v>
       </c>
       <c r="U41" t="n">
-        <v>467.6250151073511</v>
+        <v>733.0474456515308</v>
       </c>
       <c r="V41" t="n">
-        <v>467.6250151073511</v>
+        <v>733.0474456515308</v>
       </c>
       <c r="W41" t="n">
-        <v>467.6250151073511</v>
+        <v>733.0474456515308</v>
       </c>
       <c r="X41" t="n">
-        <v>467.6250151073511</v>
+        <v>733.0474456515308</v>
       </c>
       <c r="Y41" t="n">
-        <v>242.718793912973</v>
+        <v>508.1412244571526</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.746982379846</v>
+        <v>192.2656019997218</v>
       </c>
       <c r="C42" t="n">
-        <v>166.746982379846</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="D42" t="n">
         <v>17.81257271859475</v>
@@ -7496,46 +7496,46 @@
         <v>80.34372630892095</v>
       </c>
       <c r="L42" t="n">
-        <v>255.1748459799673</v>
+        <v>210.7471202899192</v>
       </c>
       <c r="M42" t="n">
-        <v>426.706324197326</v>
+        <v>382.2785985072778</v>
       </c>
       <c r="N42" t="n">
-        <v>617.1863751510023</v>
+        <v>572.7586494609541</v>
       </c>
       <c r="O42" t="n">
-        <v>769.2186132763807</v>
+        <v>724.7908875863325</v>
       </c>
       <c r="P42" t="n">
-        <v>871.9048215275947</v>
+        <v>827.4770958375465</v>
       </c>
       <c r="Q42" t="n">
         <v>890.6286359297376</v>
       </c>
       <c r="R42" t="n">
-        <v>867.5251443686484</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="S42" t="n">
-        <v>717.4625377712327</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="T42" t="n">
-        <v>520.343948839045</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="U42" t="n">
-        <v>295.4377276446668</v>
+        <v>665.7224147353594</v>
       </c>
       <c r="V42" t="n">
-        <v>295.4377276446668</v>
+        <v>585.387160214168</v>
       </c>
       <c r="W42" t="n">
-        <v>295.4377276446668</v>
+        <v>360.4809390197898</v>
       </c>
       <c r="X42" t="n">
-        <v>166.746982379846</v>
+        <v>360.4809390197898</v>
       </c>
       <c r="Y42" t="n">
-        <v>166.746982379846</v>
+        <v>360.4809390197898</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>232.9072487220948</v>
+        <v>184.4783961211136</v>
       </c>
       <c r="C43" t="n">
-        <v>63.97106579418787</v>
+        <v>184.4783961211136</v>
       </c>
       <c r="D43" t="n">
-        <v>63.97106579418787</v>
+        <v>184.4783961211136</v>
       </c>
       <c r="E43" t="n">
-        <v>63.97106579418787</v>
+        <v>184.4783961211136</v>
       </c>
       <c r="F43" t="n">
-        <v>63.97106579418787</v>
+        <v>37.58844862320321</v>
       </c>
       <c r="G43" t="n">
-        <v>17.81257271859475</v>
+        <v>37.58844862320321</v>
       </c>
       <c r="H43" t="n">
-        <v>17.81257271859475</v>
+        <v>37.58844862320321</v>
       </c>
       <c r="I43" t="n">
-        <v>17.81257271859475</v>
+        <v>37.58844862320321</v>
       </c>
       <c r="J43" t="n">
         <v>17.81257271859475</v>
@@ -7593,28 +7593,28 @@
         <v>890.6286359297376</v>
       </c>
       <c r="R43" t="n">
-        <v>890.6286359297376</v>
+        <v>859.1970597042481</v>
       </c>
       <c r="S43" t="n">
-        <v>682.7196911108512</v>
+        <v>859.1970597042481</v>
       </c>
       <c r="T43" t="n">
-        <v>457.813469916473</v>
+        <v>634.2908385098699</v>
       </c>
       <c r="U43" t="n">
-        <v>232.9072487220948</v>
+        <v>634.2908385098699</v>
       </c>
       <c r="V43" t="n">
-        <v>232.9072487220948</v>
+        <v>634.2908385098699</v>
       </c>
       <c r="W43" t="n">
-        <v>232.9072487220948</v>
+        <v>409.3846173154918</v>
       </c>
       <c r="X43" t="n">
-        <v>232.9072487220948</v>
+        <v>184.4783961211136</v>
       </c>
       <c r="Y43" t="n">
-        <v>232.9072487220948</v>
+        <v>184.4783961211136</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>242.718793912973</v>
+        <v>279.4690528840677</v>
       </c>
       <c r="C44" t="n">
-        <v>242.718793912973</v>
+        <v>279.4690528840677</v>
       </c>
       <c r="D44" t="n">
-        <v>242.718793912973</v>
+        <v>279.4690528840677</v>
       </c>
       <c r="E44" t="n">
-        <v>242.718793912973</v>
+        <v>279.4690528840677</v>
       </c>
       <c r="F44" t="n">
-        <v>242.718793912973</v>
+        <v>279.4690528840677</v>
       </c>
       <c r="G44" t="n">
-        <v>17.81257271859475</v>
+        <v>279.4690528840677</v>
       </c>
       <c r="H44" t="n">
-        <v>17.81257271859475</v>
+        <v>54.56283168968946</v>
       </c>
       <c r="I44" t="n">
         <v>17.81257271859475</v>
       </c>
       <c r="J44" t="n">
-        <v>34.05974234075612</v>
+        <v>34.05974234075596</v>
       </c>
       <c r="K44" t="n">
-        <v>109.1485562061089</v>
+        <v>109.1485562061087</v>
       </c>
       <c r="L44" t="n">
-        <v>239.2046314711343</v>
+        <v>239.2046314711342</v>
       </c>
       <c r="M44" t="n">
         <v>415.586511770486</v>
@@ -7672,28 +7672,28 @@
         <v>890.6286359297376</v>
       </c>
       <c r="R44" t="n">
-        <v>890.6286359297376</v>
+        <v>886.8626855510307</v>
       </c>
       <c r="S44" t="n">
-        <v>890.6286359297376</v>
+        <v>729.281495272824</v>
       </c>
       <c r="T44" t="n">
-        <v>890.6286359297376</v>
+        <v>729.281495272824</v>
       </c>
       <c r="U44" t="n">
-        <v>692.5312363017293</v>
+        <v>729.281495272824</v>
       </c>
       <c r="V44" t="n">
-        <v>692.5312363017293</v>
+        <v>729.281495272824</v>
       </c>
       <c r="W44" t="n">
-        <v>467.6250151073511</v>
+        <v>504.3752740784458</v>
       </c>
       <c r="X44" t="n">
-        <v>467.6250151073511</v>
+        <v>504.3752740784458</v>
       </c>
       <c r="Y44" t="n">
-        <v>467.6250151073511</v>
+        <v>279.4690528840677</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>340.5006416127534</v>
+        <v>289.6555775097585</v>
       </c>
       <c r="C45" t="n">
-        <v>166.0476123316264</v>
+        <v>289.6555775097585</v>
       </c>
       <c r="D45" t="n">
-        <v>166.0476123316264</v>
+        <v>289.6555775097585</v>
       </c>
       <c r="E45" t="n">
-        <v>166.0476123316264</v>
+        <v>130.418122504303</v>
       </c>
       <c r="F45" t="n">
-        <v>166.0476123316264</v>
+        <v>130.418122504303</v>
       </c>
       <c r="G45" t="n">
-        <v>166.0476123316264</v>
+        <v>119.0383475152379</v>
       </c>
       <c r="H45" t="n">
-        <v>64.8218375349833</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="I45" t="n">
         <v>17.81257271859475</v>
       </c>
       <c r="J45" t="n">
-        <v>32.2897619697091</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="K45" t="n">
-        <v>94.8209155600353</v>
+        <v>80.34372630892095</v>
       </c>
       <c r="L45" t="n">
-        <v>225.2243095410335</v>
+        <v>210.7471202899192</v>
       </c>
       <c r="M45" t="n">
-        <v>396.7557877583922</v>
+        <v>382.2785985072778</v>
       </c>
       <c r="N45" t="n">
-        <v>617.1863751510023</v>
+        <v>572.7586494609541</v>
       </c>
       <c r="O45" t="n">
         <v>769.2186132763807</v>
@@ -7751,28 +7751,28 @@
         <v>890.6286359297376</v>
       </c>
       <c r="R45" t="n">
-        <v>867.5251443686484</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="S45" t="n">
-        <v>867.5251443686484</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="T45" t="n">
-        <v>867.5251443686484</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="U45" t="n">
-        <v>867.5251443686484</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="V45" t="n">
-        <v>867.5251443686484</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="W45" t="n">
-        <v>642.6189231742702</v>
+        <v>665.7224147353594</v>
       </c>
       <c r="X45" t="n">
-        <v>642.6189231742702</v>
+        <v>457.8709145298266</v>
       </c>
       <c r="Y45" t="n">
-        <v>434.8586244093163</v>
+        <v>457.8709145298266</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>220.0236143974511</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="C46" t="n">
-        <v>164.7025202165051</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="D46" t="n">
-        <v>164.7025202165051</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="E46" t="n">
-        <v>164.7025202165051</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="F46" t="n">
         <v>17.81257271859475</v>
@@ -7809,22 +7809,22 @@
         <v>17.81257271859475</v>
       </c>
       <c r="K46" t="n">
-        <v>115.798277408384</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="L46" t="n">
-        <v>296.712678716887</v>
+        <v>198.7269740270978</v>
       </c>
       <c r="M46" t="n">
-        <v>394.9981493597621</v>
+        <v>399.8649672306029</v>
       </c>
       <c r="N46" t="n">
-        <v>596.7881470722609</v>
+        <v>601.6549649431017</v>
       </c>
       <c r="O46" t="n">
-        <v>767.1575751028239</v>
+        <v>772.0243929736647</v>
       </c>
       <c r="P46" t="n">
-        <v>889.4173707822661</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="Q46" t="n">
         <v>890.6286359297376</v>
@@ -7833,25 +7833,25 @@
         <v>890.6286359297376</v>
       </c>
       <c r="S46" t="n">
-        <v>890.6286359297376</v>
+        <v>682.7196911108512</v>
       </c>
       <c r="T46" t="n">
-        <v>665.7224147353594</v>
+        <v>457.813469916473</v>
       </c>
       <c r="U46" t="n">
-        <v>440.8161935409812</v>
+        <v>232.9072487220948</v>
       </c>
       <c r="V46" t="n">
-        <v>440.8161935409812</v>
+        <v>232.9072487220948</v>
       </c>
       <c r="W46" t="n">
-        <v>440.8161935409812</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="X46" t="n">
-        <v>440.8161935409812</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.0236143974511</v>
+        <v>17.81257271859475</v>
       </c>
     </row>
   </sheetData>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>9.23347882251322</v>
+        <v>9.233478822513192</v>
       </c>
       <c r="K12" t="n">
-        <v>44.87649059600773</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>44.87649059600844</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8862,13 +8862,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
-        <v>59.15022943595233</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
-        <v>135.0065633140411</v>
+        <v>32.3386265330731</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>64.11945822879032</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>7.768307062037152</v>
       </c>
       <c r="L16" t="n">
         <v>162.4747015415544</v>
@@ -9096,13 +9096,13 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>67.92627991453264</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0905856667274</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9245,7 +9245,7 @@
         <v>9.233478822513192</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>44.87649059600801</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>44.87649059600844</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9324,10 +9324,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>7.768307062037152</v>
       </c>
       <c r="L19" t="n">
-        <v>162.4747015415544</v>
+        <v>158.7822240432014</v>
       </c>
       <c r="M19" t="n">
         <v>178.5096609094456</v>
@@ -9339,10 +9339,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P19" t="n">
-        <v>31.11512638411197</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>64.11945822879032</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9570,16 +9570,16 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>67.92627991453264</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>32.3386265330731</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775146</v>
+        <v>64.11945822879032</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>103.8914369299293</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>103.8914369299292</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>103.8914369299293</v>
       </c>
       <c r="K26" t="n">
-        <v>103.8914369299293</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>9.233478822513192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>117.1744474099521</v>
+        <v>31.91037100804201</v>
       </c>
       <c r="M27" t="n">
-        <v>31.59348011598556</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446526</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>103.8914369299293</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>103.8914369299292</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>9.233478822513192</v>
+        <v>40.82695893849875</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>117.1744474099521</v>
       </c>
       <c r="M30" t="n">
-        <v>75.63092797928499</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>73.1369995466527</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094458</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
         <v>171.8177168444618</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>33.15990499306157</v>
+        <v>103.8914369299293</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>70.73153193686767</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>9.233478822513192</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>31.59348011598556</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>117.1744474099521</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>31.91037100804206</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>44.87649059600912</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>44.87649059600826</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,10 +10746,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>7.768307062037152</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>162.4747015415544</v>
+        <v>59.80676476058622</v>
       </c>
       <c r="M37" t="n">
         <v>178.5096609094456</v>
@@ -10758,13 +10758,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O37" t="n">
-        <v>158.1256887185694</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>64.11945822879032</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>9.233478822513192</v>
+        <v>54.10996941852142</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.87649059600826</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,13 +10983,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>7.768307062037152</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>173.5936832621317</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
         <v>171.8177168444618</v>
@@ -10998,10 +10998,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>32.33862653307287</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>64.11945822879032</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>44.87649059600824</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>44.87649059600826</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>23.85690230848729</v>
+        <v>9.233478822513192</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,10 +11387,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>30.25306711003412</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>44.87649059600832</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11457,13 +11457,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>7.768307062037152</v>
       </c>
       <c r="L46" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>74.61822397951629</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
         <v>171.8177168444618</v>
@@ -11472,10 +11472,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>131.3140858156883</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>64.11945822879032</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23263,19 +23263,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>132.0258826382485</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>184.2188867592773</v>
+        <v>184.218886759277</v>
       </c>
       <c r="G11" t="n">
         <v>412.9762562771396</v>
       </c>
       <c r="H11" t="n">
-        <v>315.6487261371466</v>
+        <v>315.6487261371465</v>
       </c>
       <c r="I11" t="n">
         <v>120.7842216425874</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>156.0053783754247</v>
@@ -23314,16 +23314,16 @@
         <v>212.9116779448064</v>
       </c>
       <c r="U11" t="n">
-        <v>55.04310877706894</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V11" t="n">
-        <v>105.0950994877007</v>
+        <v>105.0950994877005</v>
       </c>
       <c r="W11" t="n">
-        <v>126.5838097349788</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>177.3429659216606</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.0390618793156</v>
       </c>
       <c r="H12" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>46.53917216822466</v>
+        <v>46.53917216822465</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U12" t="n">
         <v>225.8594888440006</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>10.14342816699082</v>
       </c>
       <c r="W12" t="n">
-        <v>179.0176001606498</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>36.25574152362606</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.947399967071</v>
@@ -23439,7 +23439,7 @@
         <v>124.0671965026173</v>
       </c>
       <c r="J13" t="n">
-        <v>19.57811714556239</v>
+        <v>19.57811714556237</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S13" t="n">
         <v>205.8298553706975</v>
       </c>
       <c r="T13" t="n">
-        <v>102.3301628921369</v>
+        <v>223.4866593014431</v>
       </c>
       <c r="U13" t="n">
         <v>286.2621068442334</v>
       </c>
       <c r="V13" t="n">
-        <v>29.48048434139383</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>63.86583935415683</v>
+        <v>63.86583935415655</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23506,13 +23506,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>184.218886759277</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>412.9762562771396</v>
       </c>
       <c r="H14" t="n">
-        <v>315.6487261371465</v>
+        <v>92.99156715471207</v>
       </c>
       <c r="I14" t="n">
         <v>120.7842216425874</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.728290874919793</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>28.50237542636242</v>
+        <v>205.031296989785</v>
       </c>
       <c r="V14" t="n">
-        <v>287.6412112138314</v>
+        <v>105.0950994877005</v>
       </c>
       <c r="W14" t="n">
-        <v>126.5838097349786</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>31.24849537673623</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>46.53917216822465</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>22.87245664547832</v>
       </c>
       <c r="S15" t="n">
-        <v>148.5619805314415</v>
+        <v>127.0959884015046</v>
       </c>
       <c r="T15" t="n">
         <v>195.1474030428659</v>
@@ -23633,10 +23633,10 @@
         <v>225.8594888440006</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>10.14342816699082</v>
       </c>
       <c r="W15" t="n">
-        <v>29.03782417848515</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>116.2520223582741</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H16" t="n">
         <v>152.9488030094653</v>
@@ -23706,7 +23706,7 @@
         <v>205.8298553706975</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8295003190086732</v>
+        <v>223.4866593014431</v>
       </c>
       <c r="U16" t="n">
         <v>63.60494786179891</v>
@@ -23718,10 +23718,10 @@
         <v>63.86583935415655</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>25.52072412696933</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>160.0766826810462</v>
       </c>
       <c r="C17" t="n">
-        <v>142.6157327885731</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>132.0258826382486</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,10 +23746,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>190.3190972947052</v>
+        <v>412.9762562771396</v>
       </c>
       <c r="H17" t="n">
-        <v>315.6487261371465</v>
+        <v>113.5151103427102</v>
       </c>
       <c r="I17" t="n">
         <v>120.7842216425874</v>
@@ -23785,7 +23785,7 @@
         <v>156.0053783754247</v>
       </c>
       <c r="T17" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.1595344087969</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>126.5838097349786</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>193.8498038992451</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23828,7 +23828,7 @@
         <v>136.0987399612021</v>
       </c>
       <c r="H18" t="n">
-        <v>92.89561341529593</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I18" t="n">
         <v>46.53917216822465</v>
@@ -23861,22 +23861,22 @@
         <v>22.87245664547832</v>
       </c>
       <c r="S18" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>195.1474030428659</v>
+        <v>130.6184947374494</v>
       </c>
       <c r="U18" t="n">
         <v>225.8594888440006</v>
       </c>
       <c r="V18" t="n">
-        <v>10.14342816699082</v>
+        <v>10.14342816699093</v>
       </c>
       <c r="W18" t="n">
-        <v>29.03782417848515</v>
+        <v>29.03782417848527</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23940,25 +23940,25 @@
         <v>130.370267106228</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.5454099209067</v>
       </c>
       <c r="T19" t="n">
-        <v>173.7172455262661</v>
+        <v>0.8295003190087868</v>
       </c>
       <c r="U19" t="n">
-        <v>63.60494786179891</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>29.48048434139366</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>63.86583935415666</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>142.6157327885731</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>184.218886759277</v>
       </c>
       <c r="G20" t="n">
         <v>412.9762562771396</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3.728290874919793</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>16.79525231307812</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U20" t="n">
         <v>251.1595344087969</v>
@@ -24031,10 +24031,10 @@
         <v>105.0950994877005</v>
       </c>
       <c r="W20" t="n">
-        <v>126.5838097349786</v>
+        <v>312.8582123360292</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>147.0739416960346</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0987399612021</v>
+        <v>91.07905081856921</v>
       </c>
       <c r="H21" t="n">
         <v>100.2135170486767</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.87245664547832</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>74.494519404882</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8295003190086732</v>
+        <v>223.4866593014431</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2621068442334</v>
+        <v>236.5796438590744</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>29.48048434139355</v>
       </c>
       <c r="W22" t="n">
-        <v>203.9495361993539</v>
+        <v>63.86583935415655</v>
       </c>
       <c r="X22" t="n">
         <v>3.0524964066027</v>
@@ -24208,13 +24208,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>116.3778443802491</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>133.0353226815034</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24223,7 +24223,7 @@
         <v>412.9762562771396</v>
       </c>
       <c r="H23" t="n">
-        <v>315.6487261371465</v>
+        <v>66.75367874638812</v>
       </c>
       <c r="I23" t="n">
         <v>120.7842216425874</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.264487018038466</v>
+        <v>155.6830764714093</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>100.3459213266546</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>326.744850164618</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24296,10 +24296,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0987399612021</v>
+        <v>31.27160486818296</v>
       </c>
       <c r="H24" t="n">
         <v>100.2135170486767</v>
@@ -24344,7 +24344,7 @@
         <v>225.8594888440006</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>22.05375179045936</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,13 +24381,13 @@
         <v>166.947399967071</v>
       </c>
       <c r="H25" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>124.0671965026173</v>
       </c>
       <c r="J25" t="n">
-        <v>19.57811714556237</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>177.5416645593791</v>
       </c>
       <c r="T25" t="n">
         <v>223.4866593014431</v>
       </c>
       <c r="U25" t="n">
-        <v>37.36705945347495</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V25" t="n">
-        <v>215.5553489510243</v>
+        <v>3.242595933069595</v>
       </c>
       <c r="W25" t="n">
-        <v>37.62795094583259</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>133.8387942727222</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>133.0353226815034</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24460,7 +24460,7 @@
         <v>412.9762562771396</v>
       </c>
       <c r="H26" t="n">
-        <v>315.6487261371465</v>
+        <v>66.75367874638812</v>
       </c>
       <c r="I26" t="n">
         <v>120.7842216425874</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>3.728290874919793</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U26" t="n">
-        <v>2.264487018038466</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>133.7425018505528</v>
       </c>
       <c r="X26" t="n">
-        <v>270.5263518661617</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>137.3428912652952</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>75.23083066182978</v>
+        <v>53.49625765569511</v>
       </c>
       <c r="I27" t="n">
-        <v>46.53917216822465</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>124.0671965026173</v>
       </c>
       <c r="J28" t="n">
-        <v>19.57811714556237</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T28" t="n">
-        <v>61.25458260716667</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2621068442334</v>
+        <v>37.36705945347495</v>
       </c>
       <c r="V28" t="n">
-        <v>3.242595933069595</v>
+        <v>134.2654897428019</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>116.3778443802491</v>
+        <v>146.0461340292275</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>133.0353226815034</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>412.9762562771396</v>
+        <v>164.0812088863812</v>
       </c>
       <c r="H29" t="n">
         <v>315.6487261371465</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>3.728290874919793</v>
       </c>
       <c r="S29" t="n">
-        <v>57.56284227623202</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T29" t="n">
         <v>212.9116779448064</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1595344087969</v>
+        <v>2.264487018038466</v>
       </c>
       <c r="V29" t="n">
-        <v>78.8572110793765</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>120.8360532877106</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,16 +24761,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>107.108148723112</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>136.0987399612021</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>22.87245664547832</v>
       </c>
       <c r="S30" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>2.799935770161198</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>59.32853854450642</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24843,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>152.9488030094653</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>174.0735097496905</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>83.18877572665642</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,25 +24919,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>116.3778443802491</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>133.0353226815034</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>307.6712969294041</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>412.9762562771396</v>
+        <v>164.0812088863812</v>
       </c>
       <c r="H32" t="n">
-        <v>315.6487261371465</v>
+        <v>66.75367874638812</v>
       </c>
       <c r="I32" t="n">
-        <v>120.7842216425874</v>
+        <v>118.1974327205336</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>3.728290874919793</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>100.3459213266546</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25001,16 +25001,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.0987399612021</v>
+        <v>58.16710422488821</v>
       </c>
       <c r="H33" t="n">
         <v>100.2135170486767</v>
@@ -25049,19 +25049,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>88.04827062321863</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U33" t="n">
         <v>225.8594888440006</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>2.799935770161198</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>124.0671965026173</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>111.7482709347715</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>37.62795094583259</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>61.25458260716681</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25159,19 +25159,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>132.0258826382483</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>370.4932893603277</v>
       </c>
       <c r="G35" t="n">
-        <v>412.9762562771396</v>
+        <v>190.3190972947052</v>
       </c>
       <c r="H35" t="n">
-        <v>315.6487261371465</v>
+        <v>92.99156715471213</v>
       </c>
       <c r="I35" t="n">
         <v>120.7842216425874</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U35" t="n">
-        <v>28.50237542636225</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V35" t="n">
-        <v>281.6240210511227</v>
+        <v>105.0950994877005</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25250,7 +25250,7 @@
         <v>136.0987399612021</v>
       </c>
       <c r="H36" t="n">
-        <v>100.2135170486767</v>
+        <v>25.14931600882149</v>
       </c>
       <c r="I36" t="n">
         <v>46.53917216822465</v>
@@ -25283,16 +25283,16 @@
         <v>22.87245664547832</v>
       </c>
       <c r="S36" t="n">
-        <v>102.0042753444502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3.202329861565943</v>
+        <v>3.20232986156617</v>
       </c>
       <c r="V36" t="n">
-        <v>10.14342816699065</v>
+        <v>10.14342816699087</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25301,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25311,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.18601241436004</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.947399967071</v>
       </c>
       <c r="H37" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>124.0671965026173</v>
       </c>
       <c r="J37" t="n">
-        <v>19.57811714556237</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T37" t="n">
-        <v>223.4866593014431</v>
+        <v>0.82950031900873</v>
       </c>
       <c r="U37" t="n">
-        <v>63.60494786179873</v>
+        <v>276.4601151707923</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>142.6157327885732</v>
       </c>
       <c r="D38" t="n">
-        <v>148.8211349513268</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25408,7 +25408,7 @@
         <v>412.9762562771396</v>
       </c>
       <c r="H38" t="n">
-        <v>315.6487261371465</v>
+        <v>92.99156715471213</v>
       </c>
       <c r="I38" t="n">
         <v>120.7842216425874</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>3.728290874919793</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>156.0053783754247</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1595344087969</v>
+        <v>58.7713996519885</v>
       </c>
       <c r="V38" t="n">
-        <v>105.0950994877005</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>126.5838097349786</v>
@@ -25475,7 +25475,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>78.27885796513182</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25490,7 +25490,7 @@
         <v>100.2135170486767</v>
       </c>
       <c r="I39" t="n">
-        <v>46.53917216822465</v>
+        <v>4.973009934459355</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,22 +25523,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U39" t="n">
-        <v>3.20232986156617</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>10.14342816699087</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>29.03782417848521</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>124.0671965026173</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T40" t="n">
         <v>223.4866593014431</v>
       </c>
       <c r="U40" t="n">
-        <v>63.60494786179896</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V40" t="n">
-        <v>165.4916755562514</v>
+        <v>246.4653968206075</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>3.052496406602756</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>342.6227944071771</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>132.0258826382486</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>184.218886759277</v>
       </c>
       <c r="G41" t="n">
-        <v>412.9762562771396</v>
+        <v>190.3190972947052</v>
       </c>
       <c r="H41" t="n">
         <v>315.6487261371465</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>3.728290874919793</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>176.5289215634227</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U41" t="n">
-        <v>28.50237542636248</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.87245664547832</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U42" t="n">
         <v>3.20232986156617</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>153.2686851734458</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>29.03782417848521</v>
       </c>
       <c r="X42" t="n">
-        <v>78.36914739130495</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>121.2504918222339</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H43" t="n">
         <v>152.9488030094653</v>
@@ -25809,7 +25809,7 @@
         <v>124.0671965026173</v>
       </c>
       <c r="J43" t="n">
-        <v>19.57811714556237</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.370267106228</v>
+        <v>99.2530066429934</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T43" t="n">
         <v>0.82950031900873</v>
       </c>
       <c r="U43" t="n">
-        <v>63.60494786179896</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>63.86583935415661</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>3.052496406602756</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>160.0766826810462</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>190.3190972947052</v>
+        <v>412.9762562771396</v>
       </c>
       <c r="H44" t="n">
-        <v>315.6487261371465</v>
+        <v>92.99156715471213</v>
       </c>
       <c r="I44" t="n">
-        <v>120.7842216425874</v>
+        <v>84.40146526120365</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>3.728290874919793</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>212.9116779448064</v>
       </c>
       <c r="U44" t="n">
-        <v>55.04310877706871</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>163.5807796736192</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>73.11878068127012</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0987399612021</v>
+        <v>124.8327627220276</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>46.53917216822465</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.87245664547832</v>
       </c>
       <c r="S45" t="n">
         <v>148.5619805314415</v>
@@ -26009,10 +26009,10 @@
         <v>29.03782417848521</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>112.4789378594913</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.947399967071</v>
@@ -26073,7 +26073,7 @@
         <v>130.370267106228</v>
       </c>
       <c r="S46" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0.82950031900873</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>73.57926909312602</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>397912.4722455718</v>
+        <v>397912.472245572</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>397912.4722455721</v>
+        <v>397912.472245572</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>397912.4722455721</v>
+        <v>397912.472245572</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>419983.6470075761</v>
+        <v>419983.6470075762</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>419983.6470075762</v>
+        <v>419983.6470075761</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>419983.6470075762</v>
+        <v>419983.647007576</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>397912.4722455722</v>
+        <v>397912.472245572</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>397912.4722455721</v>
+        <v>397912.472245572</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>397912.4722455721</v>
+        <v>397912.472245572</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>397912.472245572</v>
+        <v>397912.4722455721</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377788</v>
+        <v>614457.2540377787</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377786</v>
       </c>
       <c r="D2" t="n">
         <v>614457.2540377787</v>
       </c>
       <c r="E2" t="n">
-        <v>287109.4857707102</v>
+        <v>287109.4857707103</v>
       </c>
       <c r="F2" t="n">
         <v>287109.4857707103</v>
@@ -26331,31 +26331,31 @@
         <v>287109.4857707103</v>
       </c>
       <c r="H2" t="n">
-        <v>287109.4857707103</v>
+        <v>287109.4857707102</v>
       </c>
       <c r="I2" t="n">
-        <v>298259.2134788953</v>
+        <v>298259.2134788954</v>
       </c>
       <c r="J2" t="n">
         <v>298259.2134788953</v>
       </c>
       <c r="K2" t="n">
-        <v>298259.2134788952</v>
+        <v>298259.2134788953</v>
       </c>
       <c r="L2" t="n">
         <v>298259.2134788953</v>
       </c>
       <c r="M2" t="n">
-        <v>287109.4857707102</v>
+        <v>287109.4857707103</v>
       </c>
       <c r="N2" t="n">
         <v>287109.4857707103</v>
       </c>
       <c r="O2" t="n">
+        <v>287109.4857707103</v>
+      </c>
+      <c r="P2" t="n">
         <v>287109.4857707102</v>
-      </c>
-      <c r="P2" t="n">
-        <v>287109.4857707103</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>531419.6532194045</v>
+        <v>531419.6532194046</v>
       </c>
       <c r="F3" t="n">
-        <v>8.041615094651678e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>48948.46790415059</v>
+        <v>48948.46790415062</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>447024.6202723929</v>
       </c>
       <c r="E4" t="n">
-        <v>15292.90204406257</v>
+        <v>15292.9020440626</v>
       </c>
       <c r="F4" t="n">
         <v>15292.9020440626</v>
       </c>
       <c r="G4" t="n">
-        <v>15292.9020440626</v>
+        <v>15292.90204406258</v>
       </c>
       <c r="H4" t="n">
         <v>15292.9020440626</v>
@@ -26450,7 +26450,7 @@
         <v>22520.52541984084</v>
       </c>
       <c r="M4" t="n">
-        <v>15292.90204406262</v>
+        <v>15292.90204406259</v>
       </c>
       <c r="N4" t="n">
         <v>15292.90204406259</v>
@@ -26478,13 +26478,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26153.48139947166</v>
+        <v>26153.48139947169</v>
       </c>
       <c r="F5" t="n">
         <v>26153.48139947169</v>
       </c>
       <c r="G5" t="n">
-        <v>26153.48139947169</v>
+        <v>26153.48139947168</v>
       </c>
       <c r="H5" t="n">
         <v>26153.48139947169</v>
@@ -26502,7 +26502,7 @@
         <v>27748.74501469778</v>
       </c>
       <c r="M5" t="n">
-        <v>26153.4813994717</v>
+        <v>26153.48139947168</v>
       </c>
       <c r="N5" t="n">
         <v>26153.48139947168</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133805.0337653859</v>
+        <v>133760.8979867047</v>
       </c>
       <c r="C6" t="n">
-        <v>133805.0337653858</v>
+        <v>133760.8979867046</v>
       </c>
       <c r="D6" t="n">
-        <v>133805.0337653858</v>
+        <v>133760.8979867047</v>
       </c>
       <c r="E6" t="n">
-        <v>-285756.5508922285</v>
+        <v>-296712.2789464787</v>
       </c>
       <c r="F6" t="n">
-        <v>245663.1023271759</v>
+        <v>234707.3742729259</v>
       </c>
       <c r="G6" t="n">
-        <v>245663.102327176</v>
+        <v>234707.374272926</v>
       </c>
       <c r="H6" t="n">
-        <v>245663.102327176</v>
+        <v>234707.3742729258</v>
       </c>
       <c r="I6" t="n">
-        <v>241012.7375209267</v>
+        <v>230428.6670569496</v>
       </c>
       <c r="J6" t="n">
-        <v>247989.9430443567</v>
+        <v>237405.8725803794</v>
       </c>
       <c r="K6" t="n">
-        <v>247989.9430443566</v>
+        <v>237405.8725803794</v>
       </c>
       <c r="L6" t="n">
-        <v>247989.9430443567</v>
+        <v>237405.8725803794</v>
       </c>
       <c r="M6" t="n">
-        <v>196714.6344230252</v>
+        <v>185758.9063687754</v>
       </c>
       <c r="N6" t="n">
-        <v>245663.102327176</v>
+        <v>234707.3742729259</v>
       </c>
       <c r="O6" t="n">
-        <v>245663.102327176</v>
+        <v>234707.3742729259</v>
       </c>
       <c r="P6" t="n">
-        <v>245663.102327176</v>
+        <v>234707.3742729258</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>578.7122079513609</v>
+        <v>578.7122079513611</v>
       </c>
       <c r="F3" t="n">
         <v>578.7122079513611</v>
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824345</v>
       </c>
       <c r="F4" t="n">
         <v>222.6571589824345</v>
       </c>
       <c r="G4" t="n">
-        <v>222.6571589824345</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="H4" t="n">
         <v>222.6571589824345</v>
@@ -26822,7 +26822,7 @@
         <v>248.8950473907584</v>
       </c>
       <c r="M4" t="n">
-        <v>222.6571589824346</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="N4" t="n">
         <v>222.6571589824344</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>578.7122079513609</v>
+        <v>578.7122079513611</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824345</v>
       </c>
       <c r="F4" t="n">
-        <v>2.806591755949435e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>196.4192705741103</v>
+        <v>196.4192705741104</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824345</v>
       </c>
       <c r="N4" t="n">
-        <v>2.806591755949435e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31752,34 +31752,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.326481237995419</v>
+        <v>2.32648123799542</v>
       </c>
       <c r="H11" t="n">
-        <v>23.82607597862059</v>
+        <v>23.8260759786206</v>
       </c>
       <c r="I11" t="n">
-        <v>89.69166792781849</v>
+        <v>89.6916679278185</v>
       </c>
       <c r="J11" t="n">
         <v>197.4571869733139</v>
       </c>
       <c r="K11" t="n">
-        <v>295.93713777766</v>
+        <v>295.9371377776601</v>
       </c>
       <c r="L11" t="n">
-        <v>367.1361879649624</v>
+        <v>367.1361879649625</v>
       </c>
       <c r="M11" t="n">
-        <v>408.5097486811634</v>
+        <v>408.5097486811635</v>
       </c>
       <c r="N11" t="n">
         <v>415.119863498618</v>
       </c>
       <c r="O11" t="n">
-        <v>391.985915688301</v>
+        <v>391.9859156883011</v>
       </c>
       <c r="P11" t="n">
-        <v>334.550910125289</v>
+        <v>334.5509101252891</v>
       </c>
       <c r="Q11" t="n">
         <v>251.233800789578</v>
@@ -31788,7 +31788,7 @@
         <v>146.1408270662299</v>
       </c>
       <c r="S11" t="n">
-        <v>53.01469121082066</v>
+        <v>53.01469121082068</v>
       </c>
       <c r="T11" t="n">
         <v>10.18417161932495</v>
@@ -31834,7 +31834,7 @@
         <v>1.244777202008588</v>
       </c>
       <c r="H12" t="n">
-        <v>12.02192718781978</v>
+        <v>12.02192718781979</v>
       </c>
       <c r="I12" t="n">
         <v>42.85746068319042</v>
@@ -31843,37 +31843,37 @@
         <v>117.6041478441535</v>
       </c>
       <c r="K12" t="n">
-        <v>201.0042203787288</v>
+        <v>201.0042203787289</v>
       </c>
       <c r="L12" t="n">
-        <v>270.2749797606804</v>
+        <v>270.2749797606805</v>
       </c>
       <c r="M12" t="n">
         <v>315.3981533334917</v>
       </c>
       <c r="N12" t="n">
-        <v>323.7458039557335</v>
+        <v>323.7458039557336</v>
       </c>
       <c r="O12" t="n">
         <v>296.1641617428064</v>
       </c>
       <c r="P12" t="n">
-        <v>237.6978500923241</v>
+        <v>237.6978500923242</v>
       </c>
       <c r="Q12" t="n">
         <v>158.8947179265699</v>
       </c>
       <c r="R12" t="n">
-        <v>77.2853775071648</v>
+        <v>77.28537750716481</v>
       </c>
       <c r="S12" t="n">
         <v>23.12119057239634</v>
       </c>
       <c r="T12" t="n">
-        <v>5.017325651955665</v>
+        <v>5.017325651955666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08189323697424923</v>
+        <v>0.08189323697424924</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,19 +31913,19 @@
         <v>1.0435793913877</v>
       </c>
       <c r="H13" t="n">
-        <v>9.278369497974284</v>
+        <v>9.278369497974285</v>
       </c>
       <c r="I13" t="n">
-        <v>31.38327842464102</v>
+        <v>31.38327842464103</v>
       </c>
       <c r="J13" t="n">
-        <v>73.78106297111039</v>
+        <v>73.7810629711104</v>
       </c>
       <c r="K13" t="n">
         <v>121.2449511084982</v>
       </c>
       <c r="L13" t="n">
-        <v>155.1517942432222</v>
+        <v>155.1517942432223</v>
       </c>
       <c r="M13" t="n">
         <v>163.5858131427101</v>
@@ -31937,22 +31937,22 @@
         <v>147.5052034299633</v>
       </c>
       <c r="P13" t="n">
-        <v>126.2161838456541</v>
+        <v>126.2161838456542</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.38554340065549</v>
+        <v>87.38554340065552</v>
       </c>
       <c r="R13" t="n">
-        <v>46.92312427094148</v>
+        <v>46.92312427094149</v>
       </c>
       <c r="S13" t="n">
         <v>18.18674266627473</v>
       </c>
       <c r="T13" t="n">
-        <v>4.458930126838353</v>
+        <v>4.458930126838354</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05692251225751097</v>
+        <v>0.05692251225751098</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34143,7 +34143,7 @@
         <v>408.5097486811635</v>
       </c>
       <c r="N41" t="n">
-        <v>415.119863498618</v>
+        <v>415.1198634986179</v>
       </c>
       <c r="O41" t="n">
         <v>391.9859156883011</v>
@@ -34377,7 +34377,7 @@
         <v>367.1361879649625</v>
       </c>
       <c r="M44" t="n">
-        <v>408.5097486811633</v>
+        <v>408.5097486811635</v>
       </c>
       <c r="N44" t="n">
         <v>415.119863498618</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>16.41128244662761</v>
+        <v>16.41128244662764</v>
       </c>
       <c r="K11" t="n">
-        <v>75.84728673267949</v>
+        <v>75.84728673267955</v>
       </c>
       <c r="L11" t="n">
         <v>131.3697729949752</v>
       </c>
       <c r="M11" t="n">
-        <v>178.1635154538907</v>
+        <v>178.1635154538908</v>
       </c>
       <c r="N11" t="n">
         <v>185.7067999020271</v>
       </c>
       <c r="O11" t="n">
-        <v>161.8877042666142</v>
+        <v>161.8877042666143</v>
       </c>
       <c r="P11" t="n">
         <v>103.3179143700195</v>
       </c>
       <c r="Q11" t="n">
-        <v>28.92811091512851</v>
+        <v>28.92811091512854</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>108.0392720003776</v>
+        <v>63.16278140436989</v>
       </c>
       <c r="L12" t="n">
-        <v>131.7205999808062</v>
+        <v>176.5970905768147</v>
       </c>
       <c r="M12" t="n">
         <v>173.2641194114734</v>
       </c>
       <c r="N12" t="n">
-        <v>192.4040918724002</v>
+        <v>192.4040918724003</v>
       </c>
       <c r="O12" t="n">
-        <v>153.5679172983619</v>
+        <v>153.567917298362</v>
       </c>
       <c r="P12" t="n">
         <v>103.7234426779939</v>
       </c>
       <c r="Q12" t="n">
-        <v>18.91294384054839</v>
+        <v>18.91294384054842</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>98.97545928261535</v>
+        <v>98.97545928261538</v>
       </c>
       <c r="L13" t="n">
         <v>182.7418195035384</v>
@@ -35582,13 +35582,13 @@
         <v>203.8282805176756</v>
       </c>
       <c r="O13" t="n">
-        <v>68.19889441407284</v>
+        <v>172.090331344003</v>
       </c>
       <c r="P13" t="n">
-        <v>123.4947431105476</v>
+        <v>20.82680632957965</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.223500148961108</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>98.97545928261538</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>182.7418195035384</v>
@@ -35816,13 +35816,13 @@
         <v>203.1696901045507</v>
       </c>
       <c r="N16" t="n">
-        <v>99.93684358774644</v>
+        <v>203.8282805176756</v>
       </c>
       <c r="O16" t="n">
         <v>172.090331344003</v>
       </c>
       <c r="P16" t="n">
-        <v>123.4947431105476</v>
+        <v>118.5787654632339</v>
       </c>
       <c r="Q16" t="n">
         <v>1.223500148961136</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>63.16278140436989</v>
+        <v>108.0392720003779</v>
       </c>
       <c r="L18" t="n">
         <v>131.7205999808063</v>
@@ -35977,7 +35977,7 @@
         <v>192.4040918724003</v>
       </c>
       <c r="O18" t="n">
-        <v>198.4444078943704</v>
+        <v>153.567917298362</v>
       </c>
       <c r="P18" t="n">
         <v>103.7234426779939</v>
@@ -36044,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>98.97545928261538</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>182.7418195035384</v>
+        <v>179.0493420051854</v>
       </c>
       <c r="M19" t="n">
         <v>203.1696901045507</v>
@@ -36059,10 +36059,10 @@
         <v>172.090331344003</v>
       </c>
       <c r="P19" t="n">
-        <v>19.60330618061851</v>
+        <v>123.4947431105476</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.223500148961136</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36290,16 +36290,16 @@
         <v>203.1696901045507</v>
       </c>
       <c r="N22" t="n">
-        <v>99.93684358774644</v>
+        <v>203.8282805176756</v>
       </c>
       <c r="O22" t="n">
         <v>172.090331344003</v>
       </c>
       <c r="P22" t="n">
-        <v>123.4947431105476</v>
+        <v>20.82680632957965</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.223500148961136</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>16.41128244662764</v>
+        <v>120.3027193765569</v>
       </c>
       <c r="K23" t="n">
         <v>75.84728673267955</v>
@@ -36378,7 +36378,7 @@
         <v>103.3179143700195</v>
       </c>
       <c r="Q23" t="n">
-        <v>132.8195478450578</v>
+        <v>28.92811091512854</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>123.4947431105476</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.223500148961136</v>
+        <v>1.223500148961248</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>16.41128244662764</v>
+        <v>120.3027193765569</v>
       </c>
       <c r="K26" t="n">
-        <v>179.7387236626088</v>
+        <v>75.84728673267955</v>
       </c>
       <c r="L26" t="n">
         <v>131.3697729949752</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>116.8575565178956</v>
       </c>
       <c r="K27" t="n">
         <v>63.16278140436989</v>
       </c>
       <c r="L27" t="n">
-        <v>248.8950473907584</v>
+        <v>163.6309709888483</v>
       </c>
       <c r="M27" t="n">
-        <v>204.857599527459</v>
+        <v>173.2641194114734</v>
       </c>
       <c r="N27" t="n">
         <v>192.4040918724003</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>98.97545928261546</v>
+        <v>98.97545928261538</v>
       </c>
       <c r="L28" t="n">
         <v>182.7418195035384</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>16.41128244662764</v>
+        <v>120.3027193765569</v>
       </c>
       <c r="K29" t="n">
         <v>75.84728673267955</v>
@@ -36852,7 +36852,7 @@
         <v>103.3179143700195</v>
       </c>
       <c r="Q29" t="n">
-        <v>132.8195478450578</v>
+        <v>28.92811091512854</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>31.59348011598556</v>
       </c>
       <c r="K30" t="n">
         <v>63.16278140436989</v>
       </c>
       <c r="L30" t="n">
-        <v>131.7205999808063</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="M30" t="n">
-        <v>248.8950473907584</v>
+        <v>173.2641194114734</v>
       </c>
       <c r="N30" t="n">
         <v>192.4040918724003</v>
@@ -36928,7 +36928,7 @@
         <v>153.567917298362</v>
       </c>
       <c r="P30" t="n">
-        <v>176.8604422246466</v>
+        <v>103.7234426779939</v>
       </c>
       <c r="Q30" t="n">
         <v>18.91294384054842</v>
@@ -36998,7 +36998,7 @@
         <v>182.7418195035384</v>
       </c>
       <c r="M31" t="n">
-        <v>203.1696901045508</v>
+        <v>203.1696901045507</v>
       </c>
       <c r="N31" t="n">
         <v>203.8282805176756</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>49.57118743968921</v>
+        <v>120.3027193765569</v>
       </c>
       <c r="K32" t="n">
         <v>75.84728673267955</v>
@@ -37077,7 +37077,7 @@
         <v>131.3697729949752</v>
       </c>
       <c r="M32" t="n">
-        <v>248.8950473907584</v>
+        <v>178.1635154538908</v>
       </c>
       <c r="N32" t="n">
         <v>185.7067999020271</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>116.8575565178956</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>63.16278140436989</v>
+        <v>94.75626152035545</v>
       </c>
       <c r="L33" t="n">
-        <v>131.7205999808063</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="M33" t="n">
         <v>173.2641194114734</v>
@@ -37165,7 +37165,7 @@
         <v>153.567917298362</v>
       </c>
       <c r="P33" t="n">
-        <v>135.633813686036</v>
+        <v>103.7234426779939</v>
       </c>
       <c r="Q33" t="n">
         <v>18.91294384054842</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>16.41128244662764</v>
+        <v>16.41128244662749</v>
       </c>
       <c r="K35" t="n">
         <v>75.84728673267955</v>
@@ -37323,7 +37323,7 @@
         <v>161.8877042666143</v>
       </c>
       <c r="P35" t="n">
-        <v>103.3179143700203</v>
+        <v>103.3179143700195</v>
       </c>
       <c r="Q35" t="n">
         <v>28.92811091512854</v>
@@ -37390,7 +37390,7 @@
         <v>63.16278140436989</v>
       </c>
       <c r="L36" t="n">
-        <v>176.5970905768154</v>
+        <v>131.7205999808063</v>
       </c>
       <c r="M36" t="n">
         <v>173.2641194114734</v>
@@ -37405,7 +37405,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q36" t="n">
-        <v>18.91294384054842</v>
+        <v>63.78943443655668</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>98.97545928261538</v>
       </c>
       <c r="L37" t="n">
-        <v>182.7418195035384</v>
+        <v>80.0738827225702</v>
       </c>
       <c r="M37" t="n">
         <v>203.1696901045507</v>
@@ -37478,13 +37478,13 @@
         <v>203.8282805176756</v>
       </c>
       <c r="O37" t="n">
-        <v>167.17435369669</v>
+        <v>172.090331344003</v>
       </c>
       <c r="P37" t="n">
         <v>123.4947431105476</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.223500148961136</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>44.87649059600823</v>
       </c>
       <c r="K39" t="n">
         <v>63.16278140436989</v>
@@ -37642,7 +37642,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q39" t="n">
-        <v>63.78943443655668</v>
+        <v>18.91294384054842</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>98.97545928261538</v>
       </c>
       <c r="L40" t="n">
         <v>182.7418195035384</v>
       </c>
       <c r="M40" t="n">
-        <v>198.2537124572367</v>
+        <v>203.1696901045507</v>
       </c>
       <c r="N40" t="n">
         <v>203.8282805176756</v>
@@ -37718,10 +37718,10 @@
         <v>172.090331344003</v>
       </c>
       <c r="P40" t="n">
-        <v>123.4947431105476</v>
+        <v>20.82680632957942</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.223500148961136</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,13 +37785,13 @@
         <v>75.84728673267955</v>
       </c>
       <c r="L41" t="n">
-        <v>131.3697729949751</v>
+        <v>131.3697729949752</v>
       </c>
       <c r="M41" t="n">
         <v>178.1635154538908</v>
       </c>
       <c r="N41" t="n">
-        <v>185.7067999020271</v>
+        <v>185.7067999020269</v>
       </c>
       <c r="O41" t="n">
         <v>161.8877042666143</v>
@@ -37864,7 +37864,7 @@
         <v>63.16278140436989</v>
       </c>
       <c r="L42" t="n">
-        <v>176.5970905768145</v>
+        <v>131.7205999808063</v>
       </c>
       <c r="M42" t="n">
         <v>173.2641194114734</v>
@@ -37879,7 +37879,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q42" t="n">
-        <v>18.91294384054842</v>
+        <v>63.78943443655668</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>16.41128244662764</v>
+        <v>16.41128244662749</v>
       </c>
       <c r="K44" t="n">
         <v>75.84728673267955</v>
@@ -38025,7 +38025,7 @@
         <v>131.3697729949752</v>
       </c>
       <c r="M44" t="n">
-        <v>178.1635154538906</v>
+        <v>178.1635154538908</v>
       </c>
       <c r="N44" t="n">
         <v>185.7067999020271</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>14.62342348597409</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>63.16278140436989</v>
@@ -38107,10 +38107,10 @@
         <v>173.2641194114734</v>
       </c>
       <c r="N45" t="n">
-        <v>222.6571589824344</v>
+        <v>192.4040918724003</v>
       </c>
       <c r="O45" t="n">
-        <v>153.567917298362</v>
+        <v>198.4444078943703</v>
       </c>
       <c r="P45" t="n">
         <v>103.7234426779939</v>
@@ -38177,13 +38177,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>98.97545928261538</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>182.7418195035384</v>
       </c>
       <c r="M46" t="n">
-        <v>99.27825317462133</v>
+        <v>203.1696901045507</v>
       </c>
       <c r="N46" t="n">
         <v>203.8282805176756</v>
@@ -38192,10 +38192,10 @@
         <v>172.090331344003</v>
       </c>
       <c r="P46" t="n">
-        <v>123.4947431105476</v>
+        <v>119.8022656121948</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.223500148961136</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
